--- a/questions.xlsx
+++ b/questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1004">
   <si>
     <t>Pregunta</t>
   </si>
@@ -230,7 +230,7 @@
     <t>Amazon QuickSight</t>
   </si>
   <si>
-    <t>AD</t>
+    <t>A, D</t>
   </si>
   <si>
     <t>¿Qué servicio de AWS permite a los usuarios crear copias de recursos en las regiones de AWS?</t>
@@ -290,7 +290,7 @@
     <t>A secondary key</t>
   </si>
   <si>
-    <t>AC</t>
+    <t>A, C</t>
   </si>
   <si>
     <t>¿Cuáles de los siguientes son servicios informáticos de AWS? (Seleccione dos).</t>
@@ -452,7 +452,7 @@
     <t>Autenticación de integridad de datos</t>
   </si>
   <si>
-    <t>DE</t>
+    <t>D, E</t>
   </si>
   <si>
     <t>Un profesional de la nube tiene una carga de trabajo de análisis de datos que se ejecuta con poca frecuencia y puede interrumpirse sin causar daño. Para optimizar el costo, ¿qué opción de compra de Amazon EC2 se debe usar?</t>
@@ -524,7 +524,7 @@
     <t>Amazon Redshift</t>
   </si>
   <si>
-    <t>AB</t>
+    <t>A, B</t>
   </si>
   <si>
     <t>¿Cuáles de los siguientes son beneficios de AWS Global Accelerator? (Escoge dos.)</t>
@@ -545,7 +545,7 @@
     <t>Mayor seguridad de los datos almacenados en AWS</t>
   </si>
   <si>
-    <t>BD</t>
+    <t>B, D</t>
   </si>
   <si>
     <t>Un usuario que desee obtener ayuda con la facturación y reactivar una cuenta suspendida debe enviar una solicitud de cuenta y facturación a:</t>
@@ -620,7 +620,7 @@
     <t>Mueva los datos almacenados en Amazon S3 a una clase de almacenamiento más rentable.</t>
   </si>
   <si>
-    <t>BC</t>
+    <t>B, C</t>
   </si>
   <si>
     <t>¿Qué función de Amazon VPC permite a los usuarios capturar información sobre el tráfico de IP que llega a las instancias de Amazon EC2?</t>
@@ -686,7 +686,7 @@
     <t>AWS CloudHSM</t>
   </si>
   <si>
-    <t>CE</t>
+    <t>C, E</t>
   </si>
   <si>
     <t>Una empresa planea migrar desde las instalaciones a la nube de AWS. ¿Qué herramienta o servicio de AWS proporciona informes detallados sobre los ahorros de costos estimados después de la migración?</t>
@@ -728,13 +728,19 @@
     <t>Gestión de parches de un sistema operativo de instancia Amazon EC2</t>
   </si>
   <si>
-    <t>BE</t>
+    <t>B, E</t>
   </si>
   <si>
     <t>¿Qué servicio de AWS es adecuado para una carga de trabajo basada en eventos?</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>AWS Elastic Beanstalk</t>
     </r>
     <r>
@@ -1017,6 +1023,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Qué servicio de AWS es una red de entrega de contenido que entrega datos, videos y aplicaciones de forma segura a usuarios de todo el mundo con baja latencia y altas velocidades?</t>
     </r>
     <r>
@@ -1035,6 +1047,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Qué beneficio de la nube de AWS permite hacer coincidir el suministro de recursos con las demandas cambiantes de las cargas de trabajo?</t>
     </r>
     <r>
@@ -1059,6 +1077,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Un usuario ejecuta una aplicación en AWS y nota que una o más direcciones IP propiedad de AWS están involucradas en un ataque de denegación de servicio distribuido (DDoS). ¿A quién debe contactar el usuario PRIMERO sobre esta situación?</t>
     </r>
     <r>
@@ -1131,6 +1155,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Es otro nombre para los gerentes de cuentas técnicas de AWS que proporcionan recomendaciones sobre la optimización de costos, el rendimiento y la seguridad.</t>
     </r>
     <r>
@@ -1146,6 +1176,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Qué servicio o característica de AWS permite a una empresa visualizar, comprender y administrar los costos y el uso de AWS a lo largo del tiempo?</t>
     </r>
     <r>
@@ -1164,6 +1200,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Qué servicio de AWS ofrece acceso bajo demanda a los informes de cumplimiento y seguridad de AWS?</t>
     </r>
     <r>
@@ -1182,6 +1224,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Cuáles son los beneficios de utilizar la nube de AWS para empresas con clientes en muchos países del mundo?</t>
     </r>
     <r>
@@ -1231,6 +1279,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Qué servicio de AWS maneja los detalles de implementación de aprovisionamiento de capacidad, equilibrio de carga, Auto Scaling y monitoreo del estado de las aplicaciones?</t>
     </r>
     <r>
@@ -1246,6 +1300,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Qué servicio de AWS proporciona ACL de red entrante y saliente para reforzar la conectividad externa a Amazon EC2?</t>
     </r>
     <r>
@@ -1318,6 +1378,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Según el modelo de responsabilidad compartida de AWS, ¿cuál de los siguientes es un ejemplo de seguridad en la nube de AWS?</t>
     </r>
     <r>
@@ -1357,6 +1423,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Cuáles de los siguientes son pilares del marco de buena arquitectura de AWS? (Escoge dos.)</t>
     </r>
     <r>
@@ -1402,6 +1474,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Existe un menor riesgo de falla del servicio si un desastre natural causa una interrupción del servicio en una región de AWS dada.</t>
     </r>
     <r>
@@ -1420,6 +1498,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Habrá una mejor cobertura ya que las zonas de disponibilidad están geográficamente distantes y pueden servir un área más amplia.</t>
     </r>
     <r>
@@ -1435,6 +1519,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Habrá una disminución de la latencia de la aplicación que mejorará la experiencia del usuario.</t>
     </r>
     <r>
@@ -1450,6 +1540,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Se le pregunta a un profesional de la nube cómo estimar el costo de utilizar una nueva aplicación en AWS. ¿Cual es la respuesta mas apropiada?</t>
     </r>
     <r>
@@ -1477,6 +1573,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Una empresa quiere migrar sus aplicaciones a una VPC en AWS. Estas aplicaciones necesitarán acceder a recursos locales.</t>
     </r>
     <r>
@@ -1526,6 +1628,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Una aplicación web que se ejecuta en AWS recibió spam con solicitudes maliciosas de un conjunto recurrente de direcciones IP. ¿Qué servicio de AWS puede ayudar a proteger la aplicación y bloquear el tráfico malicioso?</t>
     </r>
     <r>
@@ -1559,6 +1667,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Una empresa requiere una conexión de red dedicada entre sus servidores locales y la nube de AWS.</t>
     </r>
     <r>
@@ -1635,6 +1749,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Revise las reglas de entrada para cada grupo de seguridad en la consola de administración de Amazon EC2 para verificar el puerto 0.0.0.0/0.</t>
     </r>
     <r>
@@ -1659,6 +1779,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Cuáles son los beneficios de desarrollar y ejecutar una nueva aplicación en la nube de AWS en comparación con la aplicación local? (Escoge dos.)</t>
     </r>
     <r>
@@ -1688,10 +1814,16 @@
     <t>AWS tiene cuidado de parches de seguridad de aplicaciones.</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <r>
+    <t>C, D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Un usuario necesita un informe de evaluación de seguridad automatizado que identifique el acceso no deseado a la red a instancias de Amazon EC2 y las vulnerabilidades en esas instancias. ¿Qué servicio de AWS proporcionará este informe de evaluación?</t>
     </r>
     <r>
@@ -1710,6 +1842,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>AWS Config</t>
     </r>
     <r>
@@ -1725,6 +1863,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Amazon Macie</t>
     </r>
     <r>
@@ -1740,6 +1884,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Amazon Inspector</t>
     </r>
     <r>
@@ -1755,6 +1905,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Cómo puede una empresa aislar los costos de las cargas de trabajo de producción y no producción en AWS?</t>
     </r>
     <r>
@@ -1782,6 +1938,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Dónde pueden los usuarios encontrar un catálogo de proveedores de soluciones de seguridad de terceros reconocidos por AWS?</t>
     </r>
     <r>
@@ -1797,6 +1959,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>AWS Service Catalog</t>
     </r>
     <r>
@@ -1818,6 +1986,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Un profesional de la nube necesita almacenar datos durante 7 años para cumplir con los requisitos reglamentarios.</t>
     </r>
     <r>
@@ -1852,6 +2026,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Cuáles son los beneficios inmediatos de utilizar la nube de AWS? (Escoge dos.)</t>
     </r>
     <r>
@@ -1900,6 +2080,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Qué deben hacer los usuarios si quieren instalar una aplicación en lugares geográficamente aislados?</t>
     </r>
     <r>
@@ -1927,6 +2113,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Un sistema en la nube de AWS está diseñado para resistir la falla de uno o más componentes. ¿De qué es este un ejemplo?</t>
     </r>
     <r>
@@ -1951,6 +2143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Un profesional de la nube necesita una conexión consistente y dedicada entre los recursos de AWS y un sistema local. ¿Qué servicio de AWS puede cumplir este requisito?</t>
     </r>
     <r>
@@ -1966,6 +2164,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Dentro del modelo de responsabilidad compartida de AWS, ¿quién es responsable de la seguridad y el cumplimiento?</t>
     </r>
     <r>
@@ -2032,6 +2236,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>¿Cuál de las siguientes describe las relaciones entre las regiones, zonas de disponibilidad y ubicaciones de borde de AWS? (Escoge dos.)</t>
     </r>
     <r>
@@ -2077,6 +2287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
       <t>Una empresa quiere crear sus nuevas cargas de trabajo de aplicaciones en la nube de AWS en lugar de utilizar recursos locales.</t>
     </r>
     <r>
@@ -2206,8 +2422,33 @@
     <t>Acceso físico a centros de datos en la nube</t>
   </si>
   <si>
-    <r>
-      <t>Al comparar el costo total de propiedad (TCO) de una infraestructura local con una arquitectura en la nube, ¿qué costos se deben considerar? (Escoge dos.)</t>
+    <t xml:space="preserve">Al comparar el costo total de propiedad (TCO) de una infraestructura local con una arquitectura en la nube, ¿qué costos se deben considerar? (Escoge dos.)
+</t>
+  </si>
+  <si>
+    <t>Las tarifas de procesamiento de la tarjeta de crédito para las transacciones de solicitud en la nube.</t>
+  </si>
+  <si>
+    <t>El costo de comprar e instalar hardware del servidor en los datos locales.</t>
+  </si>
+  <si>
+    <t>El costo de administrar la infraestructura, incluidas las instalaciones de sistema operativo e instalaciones de software, parches, copias de seguridad y recuperación de fallas.</t>
+  </si>
+  <si>
+    <t>Los costos de las pruebas de penetración de terceros.</t>
+  </si>
+  <si>
+    <t>Los costos publicitarios asociados con una campaña continua de toda la empresa.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué característica de AWS permite a una empresa aprovechar los niveles de uso de servicios en varias cuentas de miembros?</t>
     </r>
     <r>
       <rPr>
@@ -2221,23 +2462,293 @@
     </r>
   </si>
   <si>
-    <t>Las tarifas de procesamiento de la tarjeta de crédito para las transacciones de solicitud en la nube.</t>
-  </si>
-  <si>
-    <t>El costo de comprar e instalar hardware del servidor en los datos locales.</t>
-  </si>
-  <si>
-    <t>El costo de administrar la infraestructura, incluidas las instalaciones de sistema operativo e instalaciones de software, parches, copias de seguridad y recuperación de fallas.</t>
-  </si>
-  <si>
-    <t>Los costos de las pruebas de penetración de terceros.</t>
-  </si>
-  <si>
-    <t>Los costos publicitarios asociados con una campaña continua de toda la empresa.</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué característica de AWS permite a una empresa aprovechar los niveles de uso de servicios en varias cuentas de miembros?</t>
+    <t>Políticas de control de servicio (SCPS)</t>
+  </si>
+  <si>
+    <t>Facturación consolidada</t>
+  </si>
+  <si>
+    <t>Todas las instancias reservadas por adelantado</t>
+  </si>
+  <si>
+    <t>AWS Costo Explorer</t>
+  </si>
+  <si>
+    <t>¿Cuál es una de las responsabilidades del cliente según el modelo de responsabilidad compartida de AWS?</t>
+  </si>
+  <si>
+    <t>Infraestructura de virtualización</t>
+  </si>
+  <si>
+    <t>Infraestructura de red</t>
+  </si>
+  <si>
+    <t>Seguridad de la aplicación</t>
+  </si>
+  <si>
+    <t>Seguridad física del hardware</t>
+  </si>
+  <si>
+    <t>¿Qué ayuda a una empresa a ofrecer una experiencia de menor latencia a sus usuarios en todo el mundo?</t>
+  </si>
+  <si>
+    <t>Uso de una región de AWS que sea fundamental para todos los usuarios</t>
+  </si>
+  <si>
+    <t>Uso de una segunda zona de disponibilidad en la región de AWS que está utilizando usado</t>
+  </si>
+  <si>
+    <t>Habilitar el almacenamiento en caché en la región de AWS que se está utilizando</t>
+  </si>
+  <si>
+    <t>Uso de ubicaciones de borde para poner contenido más cerca de todos los usuarios</t>
+  </si>
+  <si>
+    <t>¿Cómo puede la nube de AWS aumentar la productividad de la fuerza laboral de los usuarios después de la migración desde un centro de datos local?</t>
+  </si>
+  <si>
+    <t>Los usuarios no tienen que esperar el aprovisionamiento de infraestructura.</t>
+  </si>
+  <si>
+    <t>La infraestructura de la nube de AWS es mucho más rápida que una infraestructura del centro de datos local.</t>
+  </si>
+  <si>
+    <t>AWS se hace cargo de la gestión de la configuración de la aplicación en nombre de los usuarios.</t>
+  </si>
+  <si>
+    <t>Los usuarios no necesitan abordar los problemas de seguridad y cumplimiento.</t>
+  </si>
+  <si>
+    <t>¿Qué servicio de AWS proporciona una forma rápida y automatizada de crear y administrar cuentas de AWS?</t>
+  </si>
+  <si>
+    <t>AWS QuickSight</t>
+  </si>
+  <si>
+    <t>¿Qué característica de Amazon RDS se puede utilizar para lograr alta disponibilidad?</t>
+  </si>
+  <si>
+    <t>Instancias reservadas de Amazon</t>
+  </si>
+  <si>
+    <t>Almacenamiento de IOPS aprovisionado</t>
+  </si>
+  <si>
+    <t>Monitoreo mejorado</t>
+  </si>
+  <si>
+    <t>¿Dónde deberían informar los usuarios que los recursos de AWS se están utilizando con fines maliciosos?</t>
+  </si>
+  <si>
+    <t>AWS Developer Forums</t>
+  </si>
+  <si>
+    <t>¿Qué servicio de AWS debe habilitarse para realizar un seguimiento de todos los cambios en las cuentas de usuario dentro de la Consola de administración de AWS?</t>
+  </si>
+  <si>
+    <t>Un arquitecto de soluciones está diseñando un nuevo servicio detrás de Amazon API Gateway. Los patrones de solicitud para el servicio serán impredecibles y pueden cambiar repentinamente de 0 solicitudes a más de 500 por segundo. El tamaño total de los datos que deben persistir en un backend Actualmente, la base de datos tiene menos de 1 GB y su crecimiento futuro es impredecible. Los datos se pueden consultar mediante solicitudes simples de valor-clave. ¿Qué combinación de servicios de AWS cumpliría estos requisitos? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>AWS Fargate</t>
+  </si>
+  <si>
+    <t>Amazon EC2 Auto Scaling</t>
+  </si>
+  <si>
+    <t>MySQL-compatible Amazon Aurora</t>
+  </si>
+  <si>
+    <t>Un arquitecto de soluciones de una empresa de comercio electrónico quiere hacer una copia de seguridad de los datos de registro de aplicaciones en Amazon S3. El arquitecto de soluciones no está seguro de con qué frecuencia se accederá a los registros ni a qué registros se accederá con mayor frecuencia. La empresa quiere mantener los costos lo más bajos posible utilizando la clase de almacenamiento S3 adecuada. ¿Qué clase de almacenamiento S3 se debe implementar para cumplir con estos requisitos?</t>
+  </si>
+  <si>
+    <t>S3 Glacier</t>
+  </si>
+  <si>
+    <t>S3 Intelligent-Tiering</t>
+  </si>
+  <si>
+    <t>S3 Standard-Infrequent Access (S3 Standard-IA)</t>
+  </si>
+  <si>
+    <t>S3 One Zone-Infrequent Access (S3 One Zone-IA)</t>
+  </si>
+  <si>
+    <t>Un cliente está implementando una nueva aplicación y debe elegir una región de AWS. ¿Cuál de los siguientes factores podría influir en la decisión del cliente? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>Latencia reducida a los usuarios</t>
+  </si>
+  <si>
+    <t>La presentación de la aplicación en el idioma local.</t>
+  </si>
+  <si>
+    <t>Cumplimiento de la soberanía de datos</t>
+  </si>
+  <si>
+    <t>Costos de enfriamiento en climas más cálidos</t>
+  </si>
+  <si>
+    <t>Proximidad a la oficina del cliente para visitas on-site</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>¿Qué servicio de almacenamiento se puede utilizar como una opción de bajo costo para alojar sitios web estáticos?</t>
+  </si>
+  <si>
+    <t>Amazon Glacier</t>
+  </si>
+  <si>
+    <t>Amazon Elastic File System (Amazon EFS)</t>
+  </si>
+  <si>
+    <t>Amazon Simple Storage Service (Amazon S3)</t>
+  </si>
+  <si>
+    <t>¿Qué modelo de precios de instancias de Amazon EC2 puede ofrecer descuentos de hasta el 90 %?</t>
+  </si>
+  <si>
+    <t>On-Demand</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes servicios en la nube de AWS se puede utilizar para ejecutar una base de datos relacional administrada por el cliente?</t>
+  </si>
+  <si>
+    <t>Una empresa está buscando una solución de data warehouse escalable. ¿Cuál de las siguientes soluciones de AWS satisfaría las necesidades de la empresa?</t>
+  </si>
+  <si>
+    <t>Amazon Kinesis</t>
+  </si>
+  <si>
+    <t>¿Qué afirmación describe mejor a Elastic Load Balancing?</t>
+  </si>
+  <si>
+    <t>Traduce un nombre de dominio en una dirección IP usando DNS.</t>
+  </si>
+  <si>
+    <t>Distribuye el tráfico de aplicaciones entrantes a través de una o más instancias de Amazon EC2.</t>
+  </si>
+  <si>
+    <t>Recopila métricas en instancias Amazon EC2 conectadas.</t>
+  </si>
+  <si>
+    <t>Ajusta automáticamente la cantidad de instancias de Amazon EC2 para admitir el tráfico entrante.</t>
+  </si>
+  <si>
+    <t>¿Cuáles de las siguientes son formas válidas para que un cliente interactúe con los servicios de AWS? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>Command line interface</t>
+  </si>
+  <si>
+    <t>On-premises</t>
+  </si>
+  <si>
+    <t>Software Development Kits</t>
+  </si>
+  <si>
+    <t>Software-as-a-service</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Las múltiples regiones de la nube de AWS son un ejemplo de:</t>
+  </si>
+  <si>
+    <t>agilidad.</t>
+  </si>
+  <si>
+    <t>global infrastructure.</t>
+  </si>
+  <si>
+    <t>elasticity.</t>
+  </si>
+  <si>
+    <t>precios de pago por uso.</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes servicios de AWS se puede utilizar para entregar grandes cantidades de contenido de video en línea con la latencia más baja posible? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>Amazon Elastic File System (EFS)</t>
+  </si>
+  <si>
+    <t>Amazom CloudFront</t>
+  </si>
+  <si>
+    <t>Los servidores web que se ejecutan en Amazon EC2 acceden a una aplicación heredada que se ejecuta en un centro de datos corporativo. ¿Qué término describiría este modelo?</t>
+  </si>
+  <si>
+    <t>Cloud-native</t>
+  </si>
+  <si>
+    <t>Partner network</t>
+  </si>
+  <si>
+    <t>Hybrid architecture</t>
+  </si>
+  <si>
+    <t>Infrastructure as a service</t>
+  </si>
+  <si>
+    <t>¿Qué servicio proporciona una cantidad prácticamente ilimitada de almacenamiento de objetos en línea de alta duración?</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes entidades de administración de acceso e identidad (IAM) está asociada con un ID de clave de acceso y una clave de acceso secreta cuando se utiliza la interfaz de línea de comandos de AWS (AWS CLI)?</t>
+  </si>
+  <si>
+    <t>IAM group</t>
+  </si>
+  <si>
+    <t>IAM user</t>
+  </si>
+  <si>
+    <t>IAM role</t>
+  </si>
+  <si>
+    <t>IAM policy</t>
+  </si>
+  <si>
+    <t>¿Qué servicio administrado de AWS se utiliza para alojar bases de datos?</t>
+  </si>
+  <si>
+    <t>"¿Qué servicio de AWS proporciona una solución de almacenamiento de archivos compartidos simple y escalable para su uso con AWS basado en Linux y servidores locales?"</t>
+  </si>
+  <si>
+    <t>Amazon EBS</t>
+  </si>
+  <si>
+    <t>Amazon EFS</t>
+  </si>
+  <si>
+    <t>¿Qué servicio de AWS se debe usar para el almacenamiento a largo plazo y de bajo costo de copias de seguridad de datos?</t>
+  </si>
+  <si>
+    <t>AWS EBS</t>
+  </si>
+  <si>
+    <t>Una empresa quiere reducir el espacio de cómputo físico que usan los desarrolladores para ejecutar el código. ¿Qué servicio satisfaría esa necesidad al permitir arquitecturas sin servidor?</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Compute Cloud (Amazon EC2)</t>
+  </si>
+  <si>
+    <t>AWS CodeCommit</t>
+  </si>
+  <si>
+    <t>¿Dónde debe ir una empresa para buscar listados de software de proveedores de software independientes para encontrar, probar, comprar e implementar software que se ejecuta en AWS?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amazon Lumberyard</t>
     </r>
     <r>
       <rPr>
@@ -2251,341 +2762,86 @@
     </r>
   </si>
   <si>
-    <t>Políticas de control de servicio (SCPS)</t>
-  </si>
-  <si>
-    <t>Facturación consolidada</t>
-  </si>
-  <si>
-    <t>Todas las instancias reservadas por adelantado</t>
-  </si>
-  <si>
-    <t>AWS Costo Explorer</t>
-  </si>
-  <si>
-    <t>¿Cuál es una de las responsabilidades del cliente según el modelo de responsabilidad compartida de AWS?</t>
-  </si>
-  <si>
-    <t>Infraestructura de virtualización</t>
-  </si>
-  <si>
-    <t>Infraestructura de red</t>
-  </si>
-  <si>
-    <t>Seguridad de la aplicación</t>
-  </si>
-  <si>
-    <t>Seguridad física del hardware</t>
-  </si>
-  <si>
-    <t>¿Qué ayuda a una empresa a ofrecer una experiencia de menor latencia a sus usuarios en todo el mundo?</t>
-  </si>
-  <si>
-    <t>Uso de una región de AWS que sea fundamental para todos los usuarios</t>
-  </si>
-  <si>
-    <t>Uso de una segunda zona de disponibilidad en la región de AWS que está utilizando usado</t>
-  </si>
-  <si>
-    <t>Habilitar el almacenamiento en caché en la región de AWS que se está utilizando</t>
-  </si>
-  <si>
-    <t>Uso de ubicaciones de borde para poner contenido más cerca de todos los usuarios</t>
-  </si>
-  <si>
-    <t>¿Cómo puede la nube de AWS aumentar la productividad de la fuerza laboral de los usuarios después de la migración desde un centro de datos local?</t>
-  </si>
-  <si>
-    <t>Los usuarios no tienen que esperar el aprovisionamiento de infraestructura.</t>
-  </si>
-  <si>
-    <t>La infraestructura de la nube de AWS es mucho más rápida que una infraestructura del centro de datos local.</t>
-  </si>
-  <si>
-    <t>AWS se hace cargo de la gestión de la configuración de la aplicación en nombre de los usuarios.</t>
-  </si>
-  <si>
-    <t>Los usuarios no necesitan abordar los problemas de seguridad y cumplimiento.</t>
-  </si>
-  <si>
-    <t>¿Qué servicio de AWS proporciona una forma rápida y automatizada de crear y administrar cuentas de AWS?</t>
-  </si>
-  <si>
-    <t>AWS QuickSight</t>
-  </si>
-  <si>
-    <t>¿Qué característica de Amazon RDS se puede utilizar para lograr alta disponibilidad?</t>
-  </si>
-  <si>
-    <t>Instancias reservadas de Amazon</t>
-  </si>
-  <si>
-    <t>Almacenamiento de IOPS aprovisionado</t>
-  </si>
-  <si>
-    <t>Monitoreo mejorado</t>
-  </si>
-  <si>
-    <t>¿Dónde deberían informar los usuarios que los recursos de AWS se están utilizando con fines maliciosos?</t>
-  </si>
-  <si>
-    <t>AWS Developer Forums</t>
-  </si>
-  <si>
-    <t>¿Qué servicio de AWS debe habilitarse para realizar un seguimiento de todos los cambios en las cuentas de usuario dentro de la Consola de administración de AWS?</t>
-  </si>
-  <si>
-    <t>Un arquitecto de soluciones está diseñando un nuevo servicio detrás de Amazon API Gateway. Los patrones de solicitud para el servicio serán impredecibles y pueden cambiar repentinamente de 0 solicitudes a más de 500 por segundo. El tamaño total de los datos que deben persistir en un backend Actualmente, la base de datos tiene menos de 1 GB y su crecimiento futuro es impredecible. Los datos se pueden consultar mediante solicitudes simples de valor-clave. ¿Qué combinación de servicios de AWS cumpliría estos requisitos? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>AWS Fargate</t>
-  </si>
-  <si>
-    <t>Amazon EC2 Auto Scaling</t>
-  </si>
-  <si>
-    <t>MySQL-compatible Amazon Aurora</t>
-  </si>
-  <si>
-    <t>Un arquitecto de soluciones de una empresa de comercio electrónico quiere hacer una copia de seguridad de los datos de registro de aplicaciones en Amazon S3. El arquitecto de soluciones no está seguro de con qué frecuencia se accederá a los registros ni a qué registros se accederá con mayor frecuencia. La empresa quiere mantener los costos lo más bajos posible utilizando la clase de almacenamiento S3 adecuada. ¿Qué clase de almacenamiento S3 se debe implementar para cumplir con estos requisitos?</t>
-  </si>
-  <si>
-    <t>S3 Glacier</t>
-  </si>
-  <si>
-    <t>S3 Intelligent-Tiering</t>
-  </si>
-  <si>
-    <t>S3 Standard-Infrequent Access (S3 Standard-IA)</t>
-  </si>
-  <si>
-    <t>S3 One Zone-Infrequent Access (S3 One Zone-IA)</t>
-  </si>
-  <si>
-    <t>Un cliente está implementando una nueva aplicación y debe elegir una región de AWS. ¿Cuál de los siguientes factores podría influir en la decisión del cliente? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>Latencia reducida a los usuarios</t>
-  </si>
-  <si>
-    <t>La presentación de la aplicación en el idioma local.</t>
-  </si>
-  <si>
-    <t>Cumplimiento de la soberanía de datos</t>
-  </si>
-  <si>
-    <t>Costos de enfriamiento en climas más cálidos</t>
-  </si>
-  <si>
-    <t>Proximidad a la oficina del cliente para visitas on-site</t>
-  </si>
-  <si>
-    <t>¿Qué servicio de almacenamiento se puede utilizar como una opción de bajo costo para alojar sitios web estáticos?</t>
-  </si>
-  <si>
-    <t>Amazon Glacier</t>
-  </si>
-  <si>
-    <t>Amazon Elastic File System (Amazon EFS)</t>
-  </si>
-  <si>
-    <t>Amazon Simple Storage Service (Amazon S3)</t>
-  </si>
-  <si>
-    <t>¿Qué modelo de precios de instancias de Amazon EC2 puede ofrecer descuentos de hasta el 90 %?</t>
-  </si>
-  <si>
-    <t>On-Demand</t>
-  </si>
-  <si>
-    <t>¿Cuál de los siguientes servicios en la nube de AWS se puede utilizar para ejecutar una base de datos relacional administrada por el cliente?</t>
-  </si>
-  <si>
-    <t>Una empresa está buscando una solución de data warehouse escalable. ¿Cuál de las siguientes soluciones de AWS satisfaría las necesidades de la empresa?</t>
-  </si>
-  <si>
-    <t>Amazon Kinesis</t>
-  </si>
-  <si>
-    <t>¿Qué afirmación describe mejor a Elastic Load Balancing?</t>
-  </si>
-  <si>
-    <t>Traduce un nombre de dominio en una dirección IP usando DNS.</t>
-  </si>
-  <si>
-    <t>Distribuye el tráfico de aplicaciones entrantes a través de una o más instancias de Amazon EC2.</t>
-  </si>
-  <si>
-    <t>Recopila métricas en instancias Amazon EC2 conectadas.</t>
-  </si>
-  <si>
-    <t>Ajusta automáticamente la cantidad de instancias de Amazon EC2 para admitir el tráfico entrante.</t>
-  </si>
-  <si>
-    <t>¿Cuáles de las siguientes son formas válidas para que un cliente interactúe con los servicios de AWS? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>Command line interface</t>
-  </si>
-  <si>
-    <t>On-premises</t>
-  </si>
-  <si>
-    <t>Software Development Kits</t>
-  </si>
-  <si>
-    <t>Software-as-a-service</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Las múltiples regiones de la nube de AWS son un ejemplo de:</t>
-  </si>
-  <si>
-    <t>agilidad.</t>
-  </si>
-  <si>
-    <t>global infrastructure.</t>
-  </si>
-  <si>
-    <t>elasticity.</t>
-  </si>
-  <si>
-    <t>precios de pago por uso.</t>
-  </si>
-  <si>
-    <t>¿Cuál de los siguientes servicios de AWS se puede utilizar para entregar grandes cantidades de contenido de video en línea con la latencia más baja posible? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>Amazon Elastic File System (EFS)</t>
-  </si>
-  <si>
-    <t>Amazom CloudFront</t>
-  </si>
-  <si>
-    <t>Los servidores web que se ejecutan en Amazon EC2 acceden a una aplicación heredada que se ejecuta en un centro de datos corporativo. ¿Qué término describiría este modelo?</t>
-  </si>
-  <si>
-    <t>Cloud-native</t>
-  </si>
-  <si>
-    <t>Partner network</t>
-  </si>
-  <si>
-    <t>Hybrid architecture</t>
-  </si>
-  <si>
-    <t>Infrastructure as a service</t>
-  </si>
-  <si>
-    <t>¿Qué servicio proporciona una cantidad prácticamente ilimitada de almacenamiento de objetos en línea de alta duración?</t>
-  </si>
-  <si>
-    <t>¿Cuál de las siguientes entidades de administración de acceso e identidad (IAM) está asociada con un ID de clave de acceso y una clave de acceso secreta cuando se utiliza la interfaz de línea de comandos de AWS (AWS CLI)?</t>
-  </si>
-  <si>
-    <t>IAM group</t>
-  </si>
-  <si>
-    <t>IAM user</t>
-  </si>
-  <si>
-    <t>IAM role</t>
-  </si>
-  <si>
-    <t>IAM policy</t>
-  </si>
-  <si>
-    <t>¿Qué servicio administrado de AWS se utiliza para alojar bases de datos?</t>
-  </si>
-  <si>
-    <t>"¿Qué servicio de AWS proporciona una solución de almacenamiento de archivos compartidos simple y escalable para su uso con AWS basado en Linux y servidores locales?"</t>
-  </si>
-  <si>
-    <t>Amazon EBS</t>
-  </si>
-  <si>
-    <t>Amazon EFS</t>
-  </si>
-  <si>
-    <t>¿Qué servicio de AWS se debe usar para el almacenamiento a largo plazo y de bajo costo de copias de seguridad de datos?</t>
-  </si>
-  <si>
-    <t>AWS EBS</t>
-  </si>
-  <si>
-    <t>Una empresa quiere reducir el espacio de cómputo físico que usan los desarrolladores para ejecutar el código. ¿Qué servicio satisfaría esa necesidad al permitir arquitecturas sin servidor?</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Compute Cloud (Amazon EC2)</t>
-  </si>
-  <si>
-    <t>AWS CodeCommit</t>
-  </si>
-  <si>
-    <t>¿Dónde debe ir una empresa para buscar listados de software de proveedores de software independientes para encontrar, probar, comprar e implementar software que se ejecuta en AWS?</t>
-  </si>
-  <si>
-    <r>
-      <t>Amazon Lumberyard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
+    <t>¿Qué servicio de AWS brinda la capacidad de administrar la infraestructura como código?</t>
+  </si>
+  <si>
+    <t>AWS CodePipeline</t>
+  </si>
+  <si>
+    <t>Si un cliente necesita auditar la administración de cambios de los recursos de AWS, ¿cuál de los siguientes servicios de AWS debería usar el cliente?</t>
+  </si>
+  <si>
+    <t>Ejecute AWS Trusted Advisor y revise los hallazgos.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa está migrando de centros de datos locales a la nube de AWS y busca ayuda práctica con el proyecto.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>¿Qué servicio de AWS brinda la capacidad de administrar la infraestructura como código?</t>
-  </si>
-  <si>
-    <t>AWS CodePipeline</t>
-  </si>
-  <si>
-    <t>Si un cliente necesita auditar la administración de cambios de los recursos de AWS, ¿cuál de los siguientes servicios de AWS debería usar el cliente?</t>
-  </si>
-  <si>
-    <t>Ejecute AWS Trusted Advisor y revise los hallazgos.</t>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa está migrando de centros de datos locales a la nube de AWS y busca ayuda práctica con el proyecto.</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Cómo puede la empresa obtener este apoyo? (Escoge dos.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Solicite una cotización al equipo de AWS Marketplace para realizar una migración a la cuenta de AWS de la empresa.</t>
+  </si>
+  <si>
+    <t>Póngase en contacto con AWS Support y abra un caso para obtener ayuda</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Utilice los servicios profesionales de AWS para brindar orientación y configurar una AWS Landing Zone en la cuenta de AWS de la empresa.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>¿Cómo puede la empresa obtener este apoyo? (Escoge dos.)</t>
-    </r>
-  </si>
-  <si>
-    <t>Solicite una cotización al equipo de AWS Marketplace para realizar una migración a la cuenta de AWS de la empresa.</t>
-  </si>
-  <si>
-    <t>Póngase en contacto con AWS Support y abra un caso para obtener ayuda</t>
-  </si>
-  <si>
-    <r>
-      <t>Utilice los servicios profesionales de AWS para brindar orientación y configurar una AWS Landing Zone en la cuenta de AWS de la empresa.</t>
+  </si>
+  <si>
+    <t>Seleccione un socio de AWS Partner Network (APN) para ayudar con la migración</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Utilice Amazon Connect para crear una nueva solicitud de propuesta (RFP) para obtener asistencia de expertos en la migración a la nube de AWS.</t>
     </r>
     <r>
       <rPr>
@@ -2599,59 +2855,86 @@
     </r>
   </si>
   <si>
-    <t>Seleccione un socio de AWS Partner Network (APN) para ayudar con la migración</t>
-  </si>
-  <si>
-    <r>
-      <t>Utilice Amazon Connect para crear una nueva solicitud de propuesta (RFP) para obtener asistencia de expertos en la migración a la nube de AWS.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
+    <t>¿Cómo ayuda el equipo de conserjería de AWS Enterprise Support a los usuarios?</t>
+  </si>
+  <si>
+    <t>Apoyar el desarrollo de aplicaciones.</t>
+  </si>
+  <si>
+    <t>Proporcionar orientación sobre arquitectura.</t>
+  </si>
+  <si>
+    <t>Responder consultas sobre facturación y cuentas.</t>
+  </si>
+  <si>
+    <t>Responder preguntas sobre casos de soporte técnico</t>
+  </si>
+  <si>
+    <t>Una aplicación diseñada para abarcar múltiples zonas de disponibilidad se describe como</t>
+  </si>
+  <si>
+    <t>estar altamente disponible</t>
+  </si>
+  <si>
+    <t>tener alcance global</t>
+  </si>
+  <si>
+    <t>utilizando una economía de escala</t>
+  </si>
+  <si>
+    <t>tener elasticidad</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Un nuevo servicio que utilice AWS debe tener alta disponibilidad. Sin embargo, debido a requisitos reglamentarios, todas sus instancias de Amazon EC2 deben estar ubicadas en una única área geográfica.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>¿Cómo ayuda el equipo de conserjería de AWS Enterprise Support a los usuarios?</t>
-  </si>
-  <si>
-    <t>Apoyar el desarrollo de aplicaciones.</t>
-  </si>
-  <si>
-    <t>Proporcionar orientación sobre arquitectura.</t>
-  </si>
-  <si>
-    <t>Responder consultas sobre facturación y cuentas.</t>
-  </si>
-  <si>
-    <t>Responder preguntas sobre casos de soporte técnico</t>
-  </si>
-  <si>
-    <t>Una aplicación diseñada para abarcar múltiples zonas de disponibilidad se describe como</t>
-  </si>
-  <si>
-    <t>estar altamente disponible</t>
-  </si>
-  <si>
-    <t>tener alcance global</t>
-  </si>
-  <si>
-    <t>utilizando una economía de escala</t>
-  </si>
-  <si>
-    <t>tener elasticidad</t>
-  </si>
-  <si>
-    <r>
-      <t>Un nuevo servicio que utilice AWS debe tener alta disponibilidad. Sin embargo, debido a requisitos reglamentarios, todas sus instancias de Amazon EC2 deben estar ubicadas en una única área geográfica.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Según las mejores prácticas, para cumplir con estos requisitos, las instancias EC2 deben ubicarse en al menos dos:</t>
+    </r>
+  </si>
+  <si>
+    <t>Regiones de AWS</t>
+  </si>
+  <si>
+    <t>Zonas de disponibilidad</t>
+  </si>
+  <si>
+    <t>subredes</t>
+  </si>
+  <si>
+    <t>grupos de colocación</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué herramienta de AWS se utiliza para comparar el costo de ejecutar una aplicación local con el de ejecutar la aplicación en la nube de AWS?</t>
     </r>
     <r>
       <rPr>
@@ -2663,6 +2946,8 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2670,24 +2955,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>Según las mejores prácticas, para cumplir con estos requisitos, las instancias EC2 deben ubicarse en al menos dos:</t>
-    </r>
-  </si>
-  <si>
-    <t>Regiones de AWS</t>
-  </si>
-  <si>
-    <t>Zonas de disponibilidad</t>
-  </si>
-  <si>
-    <t>subredes</t>
-  </si>
-  <si>
-    <t>grupos de colocación</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué herramienta de AWS se utiliza para comparar el costo de ejecutar una aplicación local con el de ejecutar la aplicación en la nube de AWS?</t>
+      <t>Una empresa tiene varias cuentas de AWS dentro de AWS Organizations y desea aplicar el beneficio de Instancias reservadas de Amazon EC2 a una sola cuenta.</t>
     </r>
     <r>
       <rPr>
@@ -2699,10 +2967,14 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa tiene varias cuentas de AWS dentro de AWS Organizations y desea aplicar el beneficio de Instancias reservadas de Amazon EC2 a una sola cuenta.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué acción se debe tomar?</t>
     </r>
     <r>
       <rPr>
@@ -2714,20 +2986,28 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>¿Qué acción se debe tomar?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+  </si>
+  <si>
+    <t>Compre las Instancias reservadas desde la cuenta del pagador maestro y desactive el uso compartido de Instancias reservadas.</t>
+  </si>
+  <si>
+    <t>Habilite las alertas de facturación en la consola de AWS Billing and Cost Management.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Compre las Instancias reservadas en cuentas individuales vinculadas y desactive el uso compartido de Instancias reservadas desde el nivel del pagador.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -2735,47 +3015,51 @@
     </r>
   </si>
   <si>
-    <t>Compre las Instancias reservadas desde la cuenta del pagador maestro y desactive el uso compartido de Instancias reservadas.</t>
-  </si>
-  <si>
-    <t>Habilite las alertas de facturación en la consola de AWS Billing and Cost Management.</t>
-  </si>
-  <si>
-    <r>
-      <t>Compre las Instancias reservadas en cuentas individuales vinculadas y desactive el uso compartido de Instancias reservadas desde el nivel del pagador.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
+    <t>Habilite el uso compartido de instancias reservadas en la consola de AWS Billing and Cost Management.</t>
+  </si>
+  <si>
+    <t>¿Qué situación se debe informar al equipo de abuso de AWS?</t>
+  </si>
+  <si>
+    <t>En la zona de disponibilidad hay una interrupción del servicio.</t>
+  </si>
+  <si>
+    <t>Se realiza un intento de intrusión desde una dirección IP de AWS</t>
+  </si>
+  <si>
+    <t>Un usuario tiene problemas para acceder a un depósito de Amazon S3 desde una dirección IP de AWS</t>
+  </si>
+  <si>
+    <t>Un usuario necesita cambiar los métodos de pago debido a un compromiso</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa planea lanzar un sitio de comercio electrónico en una única región de AWS para una base de usuarios mundial.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>Habilite el uso compartido de instancias reservadas en la consola de AWS Billing and Cost Management.</t>
-  </si>
-  <si>
-    <t>¿Qué situación se debe informar al equipo de abuso de AWS?</t>
-  </si>
-  <si>
-    <t>En la zona de disponibilidad hay una interrupción del servicio.</t>
-  </si>
-  <si>
-    <t>Se realiza un intento de intrusión desde una dirección IP de AWS</t>
-  </si>
-  <si>
-    <t>Un usuario tiene problemas para acceder a un depósito de Amazon S3 desde una dirección IP de AWS</t>
-  </si>
-  <si>
-    <t>Un usuario necesita cambiar los métodos de pago debido a un compromiso</t>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa planea lanzar un sitio de comercio electrónico en una única región de AWS para una base de usuarios mundial.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicios de AWS permitirán a la empresa llegar a los usuarios y ofrecer baja latencia y altas velocidades de transferencia?</t>
     </r>
     <r>
       <rPr>
@@ -2794,7 +3078,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>¿Qué servicios de AWS permitirán a la empresa llegar a los usuarios y ofrecer baja latencia y altas velocidades de transferencia?</t>
+      <t>(Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -2806,6 +3090,128 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Application Load Balancer</t>
+  </si>
+  <si>
+    <t>¿Qué servicio o recurso de AWS no tiene servidor?</t>
+  </si>
+  <si>
+    <t>Amazon EC2 instances</t>
+  </si>
+  <si>
+    <t>¿Cuáles de los siguientes son componentes de Amazon VPC? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>Subnets</t>
+  </si>
+  <si>
+    <t>Buckets</t>
+  </si>
+  <si>
+    <t>Internet gateways</t>
+  </si>
+  <si>
+    <t>Access key</t>
+  </si>
+  <si>
+    <t>Los presupuestos de AWS se pueden utilizar para:</t>
+  </si>
+  <si>
+    <t>impedir que un usuario determinado cree un recurso</t>
+  </si>
+  <si>
+    <t>enviar una alerta cuando la utilización de Instancias Reservadas caiga por debajo de un cierto porcentaje</t>
+  </si>
+  <si>
+    <t>establecer límites de recursos en las cuentas de AWS para evitar gastos excesivos</t>
+  </si>
+  <si>
+    <t>dividir una factura de AWS en múltiples formas de pago</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes opciones mejorará la seguridad del acceso a la Consola de administración de AWS? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>AWS Multi-Factor Authentication (AWS MFA)</t>
+  </si>
+  <si>
+    <t>Password policies</t>
+  </si>
+  <si>
+    <t>¿Las comprobaciones de AWS Trusted Advisor incluyen recomendaciones sobre cuál de las siguientes opciones? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>Información sobre los permisos del depósito de Amazon S3</t>
+  </si>
+  <si>
+    <t>Interrupciones del servicio de AWS</t>
+  </si>
+  <si>
+    <t>Autenticación multifactor habilitada en el usuario raíz de la cuenta de AWS</t>
+  </si>
+  <si>
+    <t>Parches de software disponibles</t>
+  </si>
+  <si>
+    <t>Número de usuarios en la cuenta</t>
+  </si>
+  <si>
+    <t>¿Qué funciones pueden realizar los usuarios utilizando AWS KMS?</t>
+  </si>
+  <si>
+    <t>Cree y administre claves de acceso de AWS para el usuario raíz de la cuenta de AWS</t>
+  </si>
+  <si>
+    <t>Crear y administrar claves de acceso de AWS para un usuario de IAM de una cuenta de AWS</t>
+  </si>
+  <si>
+    <t>Crear y administrar claves para el cifrado y descifrado de datos.</t>
+  </si>
+  <si>
+    <t>Cree y administre claves para la autenticación multifactor</t>
+  </si>
+  <si>
+    <t>¿Cómo proporciona AWS Trusted Advisor orientación a los usuarios de la nube de AWS? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>Identifica vulnerabilidades de software en aplicaciones que se ejecutan en AWS</t>
+  </si>
+  <si>
+    <t>Proporciona una lista de recomendaciones de optimización de costos basadas en el uso actual de AWS.</t>
+  </si>
+  <si>
+    <t>Detecta posibles vulnerabilidades de seguridad causadas por la configuración de permisos en los recursos de la cuenta.</t>
+  </si>
+  <si>
+    <t>Corrige automáticamente posibles problemas de seguridad causados ​​por la configuración de permisos en los recursos de la cuenta.</t>
+  </si>
+  <si>
+    <t>Proporciona alertas proactivas cada vez que una instancia de Amazon EC2 se ha visto comprometida.</t>
+  </si>
+  <si>
+    <t>¿Cuáles de las siguientes son ventajas de la nube de AWS? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>AWS gestiona el mantenimiento de la infraestructura de la nube</t>
+  </si>
+  <si>
+    <t>AWS gestiona la seguridad de las aplicaciones creadas en AWS</t>
+  </si>
+  <si>
+    <t>AWS gestiona la planificación de la capacidad de los servidores físicos</t>
+  </si>
+  <si>
+    <t>AWS gestiona el desarrollo de aplicaciones en AWS</t>
+  </si>
+  <si>
+    <t>AWS gestiona la planificación de costos para servidores virtuales</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2813,7 +3219,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>(Escoge dos.)</t>
+      <t>Un usuario implementa una instancia de base de datos de Amazon RDS en varias zonas de disponibilidad. ¿Qué pilar del marco de buena arquitectura de AWS implica esta estrategia?</t>
     </r>
     <r>
       <rPr>
@@ -2827,140 +3233,17 @@
     </r>
   </si>
   <si>
-    <t>Application Load Balancer</t>
-  </si>
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>¿Qué servicio o recurso de AWS no tiene servidor?</t>
-  </si>
-  <si>
-    <t>Amazon EC2 instances</t>
-  </si>
-  <si>
-    <t>¿Cuáles de los siguientes son componentes de Amazon VPC? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>Objects</t>
-  </si>
-  <si>
-    <t>Subnets</t>
-  </si>
-  <si>
-    <t>Buckets</t>
-  </si>
-  <si>
-    <t>Internet gateways</t>
-  </si>
-  <si>
-    <t>Access key</t>
-  </si>
-  <si>
-    <t>Los presupuestos de AWS se pueden utilizar para:</t>
-  </si>
-  <si>
-    <t>impedir que un usuario determinado cree un recurso</t>
-  </si>
-  <si>
-    <t>enviar una alerta cuando la utilización de Instancias Reservadas caiga por debajo de un cierto porcentaje</t>
-  </si>
-  <si>
-    <t>establecer límites de recursos en las cuentas de AWS para evitar gastos excesivos</t>
-  </si>
-  <si>
-    <t>dividir una factura de AWS en múltiples formas de pago</t>
-  </si>
-  <si>
-    <t>¿Cuál de las siguientes opciones mejorará la seguridad del acceso a la Consola de administración de AWS? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>AWS Multi-Factor Authentication (AWS MFA)</t>
-  </si>
-  <si>
-    <t>Password policies</t>
-  </si>
-  <si>
-    <t>ce</t>
-  </si>
-  <si>
-    <t>¿Las comprobaciones de AWS Trusted Advisor incluyen recomendaciones sobre cuál de las siguientes opciones? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>Información sobre los permisos del depósito de Amazon S3</t>
-  </si>
-  <si>
-    <t>Interrupciones del servicio de AWS</t>
-  </si>
-  <si>
-    <t>Autenticación multifactor habilitada en el usuario raíz de la cuenta de AWS</t>
-  </si>
-  <si>
-    <t>Parches de software disponibles</t>
-  </si>
-  <si>
-    <t>Número de usuarios en la cuenta</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>¿Qué funciones pueden realizar los usuarios utilizando AWS KMS?</t>
-  </si>
-  <si>
-    <t>Cree y administre claves de acceso de AWS para el usuario raíz de la cuenta de AWS</t>
-  </si>
-  <si>
-    <t>Crear y administrar claves de acceso de AWS para un usuario de IAM de una cuenta de AWS</t>
-  </si>
-  <si>
-    <t>Crear y administrar claves para el cifrado y descifrado de datos.</t>
-  </si>
-  <si>
-    <t>Cree y administre claves para la autenticación multifactor</t>
-  </si>
-  <si>
-    <t>¿Cómo proporciona AWS Trusted Advisor orientación a los usuarios de la nube de AWS? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>Identifica vulnerabilidades de software en aplicaciones que se ejecutan en AWS</t>
-  </si>
-  <si>
-    <t>Proporciona una lista de recomendaciones de optimización de costos basadas en el uso actual de AWS.</t>
-  </si>
-  <si>
-    <t>Detecta posibles vulnerabilidades de seguridad causadas por la configuración de permisos en los recursos de la cuenta.</t>
-  </si>
-  <si>
-    <t>Corrige automáticamente posibles problemas de seguridad causados ​​por la configuración de permisos en los recursos de la cuenta.</t>
-  </si>
-  <si>
-    <t>Proporciona alertas proactivas cada vez que una instancia de Amazon EC2 se ha visto comprometida.</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>¿Cuáles de las siguientes son ventajas de la nube de AWS? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>AWS gestiona el mantenimiento de la infraestructura de la nube</t>
-  </si>
-  <si>
-    <t>AWS gestiona la seguridad de las aplicaciones creadas en AWS</t>
-  </si>
-  <si>
-    <t>AWS gestiona la planificación de la capacidad de los servidores físicos</t>
-  </si>
-  <si>
-    <t>AWS gestiona el desarrollo de aplicaciones en AWS</t>
-  </si>
-  <si>
-    <t>AWS gestiona la planificación de costos para servidores virtuales</t>
-  </si>
-  <si>
-    <r>
-      <t>Un usuario implementa una instancia de base de datos de Amazon RDS en varias zonas de disponibilidad. ¿Qué pilar del marco de buena arquitectura de AWS implica esta estrategia?</t>
+    <t>Optimización de costos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicios de AWS brindan a un usuario conectividad entre la nube de AWS y los recursos locales? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -2974,11 +3257,14 @@
     </r>
   </si>
   <si>
-    <t>Optimización de costos</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué servicios de AWS brindan a un usuario conectividad entre la nube de AWS y los recursos locales? (Escoge dos.)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio de AWS se utiliza para pagar las facturas de AWS y monitorear el uso y los costos presupuestarios?</t>
     </r>
     <r>
       <rPr>
@@ -2992,11 +3278,17 @@
     </r>
   </si>
   <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué servicio de AWS se utiliza para pagar las facturas de AWS y monitorear el uso y los costos presupuestarios?</t>
+    <t>AWS Billing and Cost Management</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué elemento de la infraestructura global de AWS consta de uno o más centros de datos discretos, cada uno con energía, redes y conectividad redundantes, que están alojados en instalaciones separadas?</t>
     </r>
     <r>
       <rPr>
@@ -3010,11 +3302,14 @@
     </r>
   </si>
   <si>
-    <t>AWS Billing and Cost Management</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué elemento de la infraestructura global de AWS consta de uno o más centros de datos discretos, cada uno con energía, redes y conectividad redundantes, que están alojados en instalaciones separadas?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué característica de Amazon VPC permite a los usuarios capturar información sobre el tráfico IP que llega a las instancias de Amazon EC2?</t>
     </r>
     <r>
       <rPr>
@@ -3029,7 +3324,13 @@
   </si>
   <si>
     <r>
-      <t>¿Qué característica de Amazon VPC permite a los usuarios capturar información sobre el tráfico IP que llega a las instancias de Amazon EC2?</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio de AWS se puede utilizar para escalar y reducir automáticamente una aplicación sin tomar decisiones de planificación de capacidad?</t>
     </r>
     <r>
       <rPr>
@@ -3044,7 +3345,13 @@
   </si>
   <si>
     <r>
-      <t>¿Qué servicio de AWS se puede utilizar para escalar y reducir automáticamente una aplicación sin tomar decisiones de planificación de capacidad?</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿A qué servicio o función tienen acceso los usuarios de AWS Enterprise Support que no están disponibles para los usuarios con otros planes de AWS Support?</t>
     </r>
     <r>
       <rPr>
@@ -3059,7 +3366,13 @@
   </si>
   <si>
     <r>
-      <t>¿A qué servicio o función tienen acceso los usuarios de AWS Enterprise Support que no están disponibles para los usuarios con otros planes de AWS Support?</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa quiere migrar una base de datos MySQL a AWS, pero no tiene el presupuesto para que los administradores de bases de datos se encarguen de las tareas rutinarias, incluido el aprovisionamiento, la aplicación de parches y la realización de copias de seguridad. ¿Qué servicio de AWS admitirá este caso de uso?</t>
     </r>
     <r>
       <rPr>
@@ -3074,7 +3387,13 @@
   </si>
   <si>
     <r>
-      <t>Una empresa quiere migrar una base de datos MySQL a AWS, pero no tiene el presupuesto para que los administradores de bases de datos se encarguen de las tareas rutinarias, incluido el aprovisionamiento, la aplicación de parches y la realización de copias de seguridad. ¿Qué servicio de AWS admitirá este caso de uso?</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa quiere expandirse de una región de AWS a una segunda región de AWS. ¿Qué necesita hacer la empresa para empezar a dar soporte a la nueva Región?</t>
     </r>
     <r>
       <rPr>
@@ -3088,8 +3407,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Una empresa quiere expandirse de una región de AWS a una segunda región de AWS. ¿Qué necesita hacer la empresa para empezar a dar soporte a la nueva Región?</t>
+    <t>Comenzar a desplegar recursos en la segunda Región</t>
+  </si>
+  <si>
+    <t>Descargue la Consola de administración de AWS para la nueva región</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Un usuario debe cumplir con los requisitos de licencia de software y cumplimiento que establecen que una carga de trabajo debe alojarse en un servidor físico. ¿Qué opción de precio de instancia Amazon EC2 cumplirá estos requisitos?</t>
     </r>
     <r>
       <rPr>
@@ -3103,14 +3434,14 @@
     </r>
   </si>
   <si>
-    <t>Comenzar a desplegar recursos en la segunda Región</t>
-  </si>
-  <si>
-    <t>Descargue la Consola de administración de AWS para la nueva región</t>
-  </si>
-  <si>
-    <r>
-      <t>Un usuario debe cumplir con los requisitos de licencia de software y cumplimiento que establecen que una carga de trabajo debe alojarse en un servidor físico. ¿Qué opción de precio de instancia Amazon EC2 cumplirá estos requisitos?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio de AWS proporcionará una forma de generar claves de cifrado que se puedan utilizar para cifrar datos? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -3125,7 +3456,13 @@
   </si>
   <si>
     <r>
-      <t>¿Qué servicio de AWS proporcionará una forma de generar claves de cifrado que se puedan utilizar para cifrar datos? (Escoge dos.)</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa planea migrar del sistema local a la nube de AWS. ¿Qué herramienta o servicio de AWS proporciona informes detallados sobre el ahorro de costos estimado después de la migración?</t>
     </r>
     <r>
       <rPr>
@@ -3140,7 +3477,13 @@
   </si>
   <si>
     <r>
-      <t>Una empresa planea migrar del sistema local a la nube de AWS. ¿Qué herramienta o servicio de AWS proporciona informes detallados sobre el ahorro de costos estimado después de la migración?</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué puede ayudar a evaluar una solicitud para la migración a la nube? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -3154,8 +3497,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>¿Qué puede ayudar a evaluar una solicitud para la migración a la nube? (Escoge dos.)</t>
+    <t>¿Qué servicio de AWS ayuda a los usuarios a cumplir los requisitos contractuales y normativos para la seguridad de los datos mediante el uso de dispositivos de hardware dedicados dentro de la nube de AWS?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bajo el modelo de responsabilidad compartida de AWS, ¿cuál de los siguientes gestiona el cliente? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -3169,17 +3521,20 @@
     </r>
   </si>
   <si>
-    <t>¿Qué servicio de AWS ayuda a los usuarios a cumplir los requisitos contractuales y normativos para la seguridad de los datos mediante el uso de dispositivos de hardware dedicados dentro de la nube de AWS?</t>
-  </si>
-  <si>
-    <r>
-      <t>Bajo el modelo de responsabilidad compartida de AWS, ¿cuál de los siguientes gestiona el cliente? (Escoge dos.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Desmantelamiento de dispositivos de almacenamiento físico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -3187,8 +3542,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Desmantelamiento de dispositivos de almacenamiento físico</t>
+    <t>Configuración del grupo de seguridad y ACL</t>
+  </si>
+  <si>
+    <t>Gestión de parches de un sistema operativo de instancia de Amazon RDS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Controlar el acceso físico a los centros de datos</t>
     </r>
     <r>
       <rPr>
@@ -3202,20 +3569,20 @@
     </r>
   </si>
   <si>
-    <t>Configuración del grupo de seguridad y ACL</t>
-  </si>
-  <si>
-    <t>Gestión de parches de un sistema operativo de instancia de Amazon RDS</t>
-  </si>
-  <si>
-    <r>
-      <t>Controlar el acceso físico a los centros de datos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio de AWS es adecuado para una carga de trabajo basada en eventos?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -3223,11 +3590,14 @@
     </r>
   </si>
   <si>
-    <t>be</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué servicio de AWS es adecuado para una carga de trabajo basada en eventos?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué es una propuesta de valor de la nube de AWS?</t>
     </r>
     <r>
       <rPr>
@@ -3241,14 +3611,26 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>¿Qué es una propuesta de valor de la nube de AWS?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+    <t>AWS gestiona las aplicaciones de los usuarios en la nube de AWS</t>
+  </si>
+  <si>
+    <t>Tanto el depósito S3 de origen como el de destino deben tener el control de versiones deshabilitado.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Los depósitos de S3 configurados para la replicación entre regiones pueden ser propiedad de una única cuenta de AWS o de diferentes cuentas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -3256,20 +3638,26 @@
     </r>
   </si>
   <si>
-    <t>AWS gestiona las aplicaciones de los usuarios en la nube de AWS</t>
-  </si>
-  <si>
-    <t>Tanto el depósito S3 de origen como el de destino deben tener el control de versiones deshabilitado.</t>
-  </si>
-  <si>
-    <r>
-      <t>Los depósitos de S3 configurados para la replicación entre regiones pueden ser propiedad de una única cuenta de AWS o de diferentes cuentas.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
+    <t>El propietario del depósito S3 de origen debe tener las regiones de AWS de origen y de destino deshabilitadas para su cuenta.</t>
+  </si>
+  <si>
+    <t>Proporcionar una lista de usuarios aprobados para acceder al centro de datos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa que hace negocios en línea necesita ofrecer rápidamente nuevas funciones de manera iterativa, minimizando el tiempo de comercialización. ¿Qué característica de la nube de AWS puede proporcionar esto?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -3277,14 +3665,20 @@
     </r>
   </si>
   <si>
-    <t>El propietario del depósito S3 de origen debe tener las regiones de AWS de origen y de destino deshabilitadas para su cuenta.</t>
-  </si>
-  <si>
-    <t>Proporcionar una lista de usuarios aprobados para acceder al centro de datos</t>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa que hace negocios en línea necesita ofrecer rápidamente nuevas funciones de manera iterativa, minimizando el tiempo de comercialización. ¿Qué característica de la nube de AWS puede proporcionar esto?</t>
+    <t>¿Qué funciones o servicios se pueden utilizar para monitorear los costos y gastos de una cuenta de AWS? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>Alertas de facturación y alarmas de Amazon CloudWatch</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amazon Route 53 permite a los usuarios:</t>
     </r>
     <r>
       <rPr>
@@ -3298,14 +3692,20 @@
     </r>
   </si>
   <si>
-    <t>¿Qué funciones o servicios se pueden utilizar para monitorear los costos y gastos de una cuenta de AWS? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>Alertas de facturación y alarmas de Amazon CloudWatch</t>
-  </si>
-  <si>
-    <r>
-      <t>Amazon Route 53 permite a los usuarios:</t>
+    <t>generar y gestionar certificados SSL</t>
+  </si>
+  <si>
+    <t>¿Qué servicio de AWS ayuda a identificar actividades maliciosas o no autorizadas en cuentas y cargas de trabajo de AWS?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa quiere probar una solución de comercio electrónico de terceros antes de decidir utilizarla a largo plazo. ¿Qué servicio o herramienta de AWS respaldará este esfuerzo?</t>
     </r>
     <r>
       <rPr>
@@ -3319,14 +3719,26 @@
     </r>
   </si>
   <si>
-    <t>generar y gestionar certificados SSL</t>
-  </si>
-  <si>
-    <t>¿Qué servicio de AWS ayuda a identificar actividades maliciosas o no autorizadas en cuentas y cargas de trabajo de AWS?</t>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa quiere probar una solución de comercio electrónico de terceros antes de decidir utilizarla a largo plazo. ¿Qué servicio o herramienta de AWS respaldará este esfuerzo?</t>
+    <t>Servicios administrados de AWS</t>
+  </si>
+  <si>
+    <t>¿Qué servicio de AWS es una base de datos NoSQL administrada?</t>
+  </si>
+  <si>
+    <t>Amazon RDS for MariaDB</t>
+  </si>
+  <si>
+    <t>¿Qué servicio de AWS debería utilizarse para crear una alarma de facturación?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa aloja una aplicación web en un contenedor Docker en Amazon EC2. ¿AWS es responsable de cuál de las siguientes tareas?</t>
     </r>
     <r>
       <rPr>
@@ -3340,20 +3752,26 @@
     </r>
   </si>
   <si>
-    <t>Servicios administrados de AWS</t>
-  </si>
-  <si>
-    <t>¿Qué servicio de AWS es una base de datos NoSQL administrada?</t>
-  </si>
-  <si>
-    <t>Amazon RDS for MariaDB</t>
-  </si>
-  <si>
-    <t>¿Qué servicio de AWS debería utilizarse para crear una alarma de facturación?</t>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa aloja una aplicación web en un contenedor Docker en Amazon EC2. ¿AWS es responsable de cuál de las siguientes tareas?</t>
+    <t>Escalado de la aplicación web y los servicios desarrollados con Docker</t>
+  </si>
+  <si>
+    <t>Aprovisionar o programar contenedores para que se ejecuten en clústeres y mantengan su disponibilidad.</t>
+  </si>
+  <si>
+    <t>Realizar mantenimiento de hardware en las instalaciones de AWS que ejecutan la Nube de AWS</t>
+  </si>
+  <si>
+    <t>Administrar el sistema operativo invitado, incluidas actualizaciones y parches de seguridad.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Los usuarios informan latencia al conectarse a un sitio web con una base de clientes global. ¿Qué servicio de AWS mejorará la experiencia del cliente al reducir la latencia?</t>
     </r>
     <r>
       <rPr>
@@ -3367,20 +3785,32 @@
     </r>
   </si>
   <si>
-    <t>Escalado de la aplicación web y los servicios desarrollados con Docker</t>
-  </si>
-  <si>
-    <t>Aprovisionar o programar contenedores para que se ejecuten en clústeres y mantengan su disponibilidad.</t>
-  </si>
-  <si>
-    <t>Realizar mantenimiento de hardware en las instalaciones de AWS que ejecutan la Nube de AWS</t>
-  </si>
-  <si>
-    <t>Administrar el sistema operativo invitado, incluidas actualizaciones y parches de seguridad.</t>
-  </si>
-  <si>
-    <r>
-      <t>Los usuarios informan latencia al conectarse a un sitio web con una base de clientes global. ¿Qué servicio de AWS mejorará la experiencia del cliente al reducir la latencia?</t>
+    <t>¿Qué acciones representan las mejores prácticas para utilizar AWS IAM? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>Configurar una política de contraseña segura</t>
+  </si>
+  <si>
+    <t>Comparta las credenciales de seguridad entre usuarios de cuentas de AWS que se encuentren en la misma región</t>
+  </si>
+  <si>
+    <t>Utilice claves de acceso para iniciar sesión en la Consola de administración de AWS</t>
+  </si>
+  <si>
+    <t>Rotar las claves de acceso periódicamente</t>
+  </si>
+  <si>
+    <t>Evite el uso de roles de IAM para delegar permisos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué característica o servicio de AWS se puede utilizar para capturar información sobre el tráfico entrante y saliente en una infraestructura de AWS VPC?</t>
     </r>
     <r>
       <rPr>
@@ -3394,26 +3824,14 @@
     </r>
   </si>
   <si>
-    <t>¿Qué acciones representan las mejores prácticas para utilizar AWS IAM? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>Configurar una política de contraseña segura</t>
-  </si>
-  <si>
-    <t>Comparta las credenciales de seguridad entre usuarios de cuentas de AWS que se encuentren en la misma región</t>
-  </si>
-  <si>
-    <t>Utilice claves de acceso para iniciar sesión en la Consola de administración de AWS</t>
-  </si>
-  <si>
-    <t>Rotar las claves de acceso periódicamente</t>
-  </si>
-  <si>
-    <t>Evite el uso de roles de IAM para delegar permisos</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué característica o servicio de AWS se puede utilizar para capturar información sobre el tráfico entrante y saliente en una infraestructura de AWS VPC?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa quiere utilizar un servicio de AWS para monitorear el estado de los puntos finales de las aplicaciones, con la capacidad de enrutar el tráfico a puntos finales regionales en buen estado para mejorar la disponibilidad de las aplicaciones. ¿Qué servicio soportará estos requisitos?</t>
     </r>
     <r>
       <rPr>
@@ -3428,7 +3846,13 @@
   </si>
   <si>
     <r>
-      <t>Una empresa quiere utilizar un servicio de AWS para monitorear el estado de los puntos finales de las aplicaciones, con la capacidad de enrutar el tráfico a puntos finales regionales en buen estado para mejorar la disponibilidad de las aplicaciones. ¿Qué servicio soportará estos requisitos?</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Según el marco de buena arquitectura de AWS, ¿qué pasos de gestión de cambios se deben tomar para lograr confiabilidad en la nube de AWS? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -3442,8 +3866,29 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Según el marco de buena arquitectura de AWS, ¿qué pasos de gestión de cambios se deben tomar para lograr confiabilidad en la nube de AWS? (Escoge dos.)</t>
+    <t>Utilice AWS Config para generar un inventario de recursos de AWS</t>
+  </si>
+  <si>
+    <t>Utilice límites de servicio para evitar que los usuarios creen o realicen cambios en los recursos de AWS</t>
+  </si>
+  <si>
+    <t>Utilice AWS CloudTrail para registrar llamadas a la API de AWS en un archivo de registro auditable</t>
+  </si>
+  <si>
+    <t>Utilice AWS Certificate Manager para incluir en la lista blanca los recursos y servicios de AWS aprobados</t>
+  </si>
+  <si>
+    <t>Utilice Amazon GuardDuty para validar los cambios de configuración realizados en los recursos de AWS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio se puede utilizar para monitorear y recibir alertas para los eventos de inicio de sesión de AWS Management Console del usuario raíz de la cuenta de AWS?</t>
     </r>
     <r>
       <rPr>
@@ -3457,23 +3902,38 @@
     </r>
   </si>
   <si>
-    <t>Utilice AWS Config para generar un inventario de recursos de AWS</t>
-  </si>
-  <si>
-    <t>Utilice límites de servicio para evitar que los usuarios creen o realicen cambios en los recursos de AWS</t>
-  </si>
-  <si>
-    <t>Utilice AWS CloudTrail para registrar llamadas a la API de AWS en un archivo de registro auditable</t>
-  </si>
-  <si>
-    <t>Utilice AWS Certificate Manager para incluir en la lista blanca los recursos y servicios de AWS aprobados</t>
-  </si>
-  <si>
-    <t>Utilice Amazon GuardDuty para validar los cambios de configuración realizados en los recursos de AWS</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué servicio se puede utilizar para monitorear y recibir alertas para los eventos de inicio de sesión de AWS Management Console del usuario raíz de la cuenta de AWS?</t>
+    <t>¿Qué principio de diseño se debe considerar al diseñar en la nube de AWS?</t>
+  </si>
+  <si>
+    <t>Piense en los servidores como recursos no desechables</t>
+  </si>
+  <si>
+    <t>Utilice la integración sincrónica de servicios.</t>
+  </si>
+  <si>
+    <t>Diseñar componentes débilmente acoplados</t>
+  </si>
+  <si>
+    <t>Implementar las reglas menos permisivas para los grupos de seguridad.</t>
+  </si>
+  <si>
+    <t>¿Qué servicios de AWS se pueden utilizar para mover datos desde centros de datos locales a AWS? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>AWS ElastiCache</t>
+  </si>
+  <si>
+    <t>AWS Database Migration Service (AWS DMS)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una carga de trabajo por lotes tarda 5 horas en finalizar en una instancia de Amazon EC2. La cantidad de datos a procesar se duplica mensualmente y el tiempo de procesamiento es proporcional. ¿Cuál es la mejor arquitectura de nube para abordar esta demanda en constante crecimiento?</t>
     </r>
     <r>
       <rPr>
@@ -3487,32 +3947,26 @@
     </r>
   </si>
   <si>
-    <t>¿Qué principio de diseño se debe considerar al diseñar en la nube de AWS?</t>
-  </si>
-  <si>
-    <t>Piense en los servidores como recursos no desechables</t>
-  </si>
-  <si>
-    <t>Utilice la integración sincrónica de servicios.</t>
-  </si>
-  <si>
-    <t>Diseñar componentes débilmente acoplados</t>
-  </si>
-  <si>
-    <t>Implementar las reglas menos permisivas para los grupos de seguridad.</t>
-  </si>
-  <si>
-    <t>¿Qué servicios de AWS se pueden utilizar para mover datos desde centros de datos locales a AWS? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>AWS ElastiCache</t>
-  </si>
-  <si>
-    <t>AWS Database Migration Service (AWS DMS)</t>
-  </si>
-  <si>
-    <r>
-      <t>Una carga de trabajo por lotes tarda 5 horas en finalizar en una instancia de Amazon EC2. La cantidad de datos a procesar se duplica mensualmente y el tiempo de procesamiento es proporcional. ¿Cuál es la mejor arquitectura de nube para abordar esta demanda en constante crecimiento?</t>
+    <t>Ejecute la aplicación en una instancia EC2 de mayor tamaño.</t>
+  </si>
+  <si>
+    <t>Cambie a una familia de instancias EC2 que mejor se adapte a los requisitos de lote.</t>
+  </si>
+  <si>
+    <t>Distribuya la aplicación en varias instancias EC2 y ejecute la carga de trabajo en paralelo.</t>
+  </si>
+  <si>
+    <t>Ejecute la aplicación en una instancia EC2 básica.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cada departamento dentro de una empresa tiene su propia cuenta de AWS independiente y su propio método de pago. El nuevo liderazgo de la empresa quiere centralizar la gobernanza departamental y consolidar los pagos. ¿Cómo se puede lograr esto utilizando los servicios o funciones de AWS?</t>
     </r>
     <r>
       <rPr>
@@ -3526,20 +3980,26 @@
     </r>
   </si>
   <si>
-    <t>Ejecute la aplicación en una instancia EC2 de mayor tamaño.</t>
-  </si>
-  <si>
-    <t>Cambie a una familia de instancias EC2 que mejor se adapte a los requisitos de lote.</t>
-  </si>
-  <si>
-    <t>Distribuya la aplicación en varias instancias EC2 y ejecute la carga de trabajo en paralelo.</t>
-  </si>
-  <si>
-    <t>Ejecute la aplicación en una instancia EC2 básica.</t>
-  </si>
-  <si>
-    <r>
-      <t>Cada departamento dentro de una empresa tiene su propia cuenta de AWS independiente y su propio método de pago. El nuevo liderazgo de la empresa quiere centralizar la gobernanza departamental y consolidar los pagos. ¿Cómo se puede lograr esto utilizando los servicios o funciones de AWS?</t>
+    <t>Remitir facturas mensuales para cada cuenta. Luego cree roles de IAM para permitir el acceso entre cuentas.</t>
+  </si>
+  <si>
+    <t>Cree una nueva cuenta de AWS. Luego configure AWS Organizations e invite a todas las cuentas existentes a unirse.</t>
+  </si>
+  <si>
+    <t>Configure AWS Organizations en cada una de las cuentas existentes. Luego vincule todas las cuentas.</t>
+  </si>
+  <si>
+    <t>Utilice Cost Explorer para combinar costos de todas las cuentas. Luego, replique las políticas de IAM en todas las cuentas.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿La capacidad de escalar horizontalmente instancias de Amazon EC2 en función de la demanda es un ejemplo de qué concepto en la propuesta de valor de la nube de AWS?</t>
     </r>
     <r>
       <rPr>
@@ -3553,20 +4013,17 @@
     </r>
   </si>
   <si>
-    <t>Remitir facturas mensuales para cada cuenta. Luego cree roles de IAM para permitir el acceso entre cuentas.</t>
-  </si>
-  <si>
-    <t>Cree una nueva cuenta de AWS. Luego configure AWS Organizations e invite a todas las cuentas existentes a unirse.</t>
-  </si>
-  <si>
-    <t>Configure AWS Organizations en cada una de las cuentas existentes. Luego vincule todas las cuentas.</t>
-  </si>
-  <si>
-    <t>Utilice Cost Explorer para combinar costos de todas las cuentas. Luego, replique las políticas de IAM en todas las cuentas.</t>
-  </si>
-  <si>
-    <r>
-      <t>¿La capacidad de escalar horizontalmente instancias de Amazon EC2 en función de la demanda es un ejemplo de qué concepto en la propuesta de valor de la nube de AWS?</t>
+    <t>Economía de escala</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa de comercio electrónico prevé un enorme aumento en el tráfico web para dos próximas fiestas de compras muy populares. ¿Qué servicio o característica de AWS se puede configurar para ajustar dinámicamente los recursos para satisfacer este cambio en la demanda?</t>
     </r>
     <r>
       <rPr>
@@ -3580,11 +4037,23 @@
     </r>
   </si>
   <si>
-    <t>Economía de escala</t>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa de comercio electrónico prevé un enorme aumento en el tráfico web para dos próximas fiestas de compras muy populares. ¿Qué servicio o característica de AWS se puede configurar para ajustar dinámicamente los recursos para satisfacer este cambio en la demanda?</t>
+    <t>¿Qué servicio de AWS permite a los usuarios conectarse de forma segura a los recursos de AWS a través de la Internet pública?</t>
+  </si>
+  <si>
+    <t>Amazon VPC peering</t>
+  </si>
+  <si>
+    <t>¿Qué herramienta se utiliza para pronosticar el gasto de AWS?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa ejecuta una aplicación de comercio electrónico alojada en Europa. Para disminuir la latencia de los usuarios que acceden al sitio web desde otras partes del mundo, a la empresa le gustaría almacenar en caché el contenido estático al que se accede con frecuencia más cerca de los usuarios. ¿Qué servicio de AWS admitirá estos requisitos?</t>
     </r>
     <r>
       <rPr>
@@ -3598,17 +4067,20 @@
     </r>
   </si>
   <si>
-    <t>¿Qué servicio de AWS permite a los usuarios conectarse de forma segura a los recursos de AWS a través de la Internet pública?</t>
-  </si>
-  <si>
-    <t>Amazon VPC peering</t>
-  </si>
-  <si>
-    <t>¿Qué herramienta se utiliza para pronosticar el gasto de AWS?</t>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa ejecuta una aplicación de comercio electrónico alojada en Europa. Para disminuir la latencia de los usuarios que acceden al sitio web desde otras partes del mundo, a la empresa le gustaría almacenar en caché el contenido estático al que se accede con frecuencia más cerca de los usuarios. ¿Qué servicio de AWS admitirá estos requisitos?</t>
+    <t>¿Cuál de los siguientes es un componente de la infraestructura global de AWS?</t>
+  </si>
+  <si>
+    <t>Amazon Alexa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio de AWS ayudará a los usuarios a determinar si una aplicación que se ejecuta en una instancia de Amazon EC2 tiene suficiente capacidad de CPU?</t>
     </r>
     <r>
       <rPr>
@@ -3622,14 +4094,47 @@
     </r>
   </si>
   <si>
-    <t>¿Cuál de los siguientes es un componente de la infraestructura global de AWS?</t>
-  </si>
-  <si>
-    <t>Amazon Alexa</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué servicio de AWS ayudará a los usuarios a determinar si una aplicación que se ejecuta en una instancia de Amazon EC2 tiene suficiente capacidad de CPU?</t>
+    <t>¿Por qué es beneficioso utilizar Elastic Load Balancers con aplicaciones?</t>
+  </si>
+  <si>
+    <t>Permiten la conversión de Application Load Balancers a Classic Load Balancers.</t>
+  </si>
+  <si>
+    <t>Son capaces de manejar cambios constantes en los patrones de tráfico de la red.</t>
+  </si>
+  <si>
+    <t>Ajustan automáticamente la capacidad</t>
+  </si>
+  <si>
+    <t>Se proporcionan sin coste alguno para los usuarios.</t>
+  </si>
+  <si>
+    <t>¿Qué tareas son responsabilidad del cliente en el modelo de responsabilidad compartida de AWS? (Escoge dos.)</t>
+  </si>
+  <si>
+    <t>Gestión de acceso a instalaciones de infraestructura.</t>
+  </si>
+  <si>
+    <t>Gestión del ciclo de vida del hardware de la infraestructura en la nube</t>
+  </si>
+  <si>
+    <t>Gestión de la configuración de las aplicaciones del usuario.</t>
+  </si>
+  <si>
+    <t>Protección de infraestructura de red</t>
+  </si>
+  <si>
+    <t>Configuración de grupos de seguridad</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Los sistemas de TI deben diseñarse para reducir las interdependencias, de modo que un cambio o falla en un componente no se repercuta en otros componentes. ¿Este es un ejemplo de qué principio de diseño de arquitectura en la nube?</t>
     </r>
     <r>
       <rPr>
@@ -3643,41 +4148,26 @@
     </r>
   </si>
   <si>
-    <t>¿Por qué es beneficioso utilizar Elastic Load Balancers con aplicaciones?</t>
-  </si>
-  <si>
-    <t>Permiten la conversión de Application Load Balancers a Classic Load Balancers.</t>
-  </si>
-  <si>
-    <t>Son capaces de manejar cambios constantes en los patrones de tráfico de la red.</t>
-  </si>
-  <si>
-    <t>Ajustan automáticamente la capacidad</t>
-  </si>
-  <si>
-    <t>Se proporcionan sin coste alguno para los usuarios.</t>
-  </si>
-  <si>
-    <t>¿Qué tareas son responsabilidad del cliente en el modelo de responsabilidad compartida de AWS? (Escoge dos.)</t>
-  </si>
-  <si>
-    <t>Gestión de acceso a instalaciones de infraestructura.</t>
-  </si>
-  <si>
-    <t>Gestión del ciclo de vida del hardware de la infraestructura en la nube</t>
-  </si>
-  <si>
-    <t>Gestión de la configuración de las aplicaciones del usuario.</t>
-  </si>
-  <si>
-    <t>Protección de infraestructura de red</t>
-  </si>
-  <si>
-    <t>Configuración de grupos de seguridad</t>
-  </si>
-  <si>
-    <r>
-      <t>Los sistemas de TI deben diseñarse para reducir las interdependencias, de modo que un cambio o falla en un componente no se repercuta en otros componentes. ¿Este es un ejemplo de qué principio de diseño de arquitectura en la nube?</t>
+    <t>Escalabilidad</t>
+  </si>
+  <si>
+    <t>Bajo acoplamiento</t>
+  </si>
+  <si>
+    <t>Automatización</t>
+  </si>
+  <si>
+    <t>Escalado automático</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio o característica de AWS puede mejorar la seguridad de la red al bloquear las solicitudes de una red particular para una aplicación web en AWS? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -3691,20 +4181,20 @@
     </r>
   </si>
   <si>
-    <t>Escalabilidad</t>
-  </si>
-  <si>
-    <t>Bajo acoplamiento</t>
-  </si>
-  <si>
-    <t>Automatización</t>
-  </si>
-  <si>
-    <t>Escalado automático</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué servicio o característica de AWS puede mejorar la seguridad de la red al bloquear las solicitudes de una red particular para una aplicación web en AWS? (Escoge dos.)</t>
+    <t>A, E</t>
+  </si>
+  <si>
+    <t>Una aplicación se ejecuta en varias instancias Amazon EC2 que acceden a un sistema de archivos compartido simultáneamente. ¿Qué servicio de almacenamiento de AWS se debe utilizar?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Un usuario ejecuta una aplicación en AWS y nota que una o más direcciones IP propiedad de AWS están involucradas en un ataque de denegación de servicio distribuido (DDoS). ¿A quién debe contactar el usuario PRIMERO sobre esta situación?</t>
     </r>
     <r>
       <rPr>
@@ -3718,20 +4208,50 @@
     </r>
   </si>
   <si>
-    <t>ae</t>
-  </si>
-  <si>
-    <t>Una aplicación se ejecuta en varias instancias Amazon EC2 que acceden a un sistema de archivos compartido simultáneamente. ¿Qué servicio de almacenamiento de AWS se debe utilizar?</t>
-  </si>
-  <si>
-    <r>
-      <t>Un usuario ejecuta una aplicación en AWS y nota que una o más direcciones IP propiedad de AWS están involucradas en un ataque de denegación de servicio distribuido (DDoS). ¿A quién debe contactar el usuario PRIMERO sobre esta situación?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+    <t>AWS gestiona toda la seguridad en la nube.</t>
+  </si>
+  <si>
+    <t>Los usuarios tienen la capacidad de aprovisionar recursos bajo demanda.</t>
+  </si>
+  <si>
+    <t>Los usuarios tienen acceso a almacenamiento gratuito e ilimitado.</t>
+  </si>
+  <si>
+    <t>inicie sesión en la Consola de administración de AWS.</t>
+  </si>
+  <si>
+    <t>realizar llamadas programáticas a AWS desde las API de AWS.</t>
+  </si>
+  <si>
+    <t>inicie sesión en instancias de Amazon EC2.</t>
+  </si>
+  <si>
+    <t>autenticarse en los repositorios de AWS CodeCommit.</t>
+  </si>
+  <si>
+    <t>Es un miembro del personal de AWS que brinda recomendaciones y mejores prácticas sobre cómo utilizar AWS.</t>
+  </si>
+  <si>
+    <t>Es una red de socios de AWS que brindan recomendaciones y mejores prácticas sobre cómo utilizar AWS.</t>
+  </si>
+  <si>
+    <t>Es una herramienta en línea con un conjunto de comprobaciones automatizadas que brinda recomendaciones sobre optimización de costos, rendimiento y seguridad.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Es otro nombre para los administradores de cuentas técnicas de AWS que brindan recomendaciones sobre optimización de costos, rendimiento y seguridad.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -3739,44 +4259,20 @@
     </r>
   </si>
   <si>
-    <t>AWS gestiona toda la seguridad en la nube.</t>
-  </si>
-  <si>
-    <t>Los usuarios tienen la capacidad de aprovisionar recursos bajo demanda.</t>
-  </si>
-  <si>
-    <t>Los usuarios tienen acceso a almacenamiento gratuito e ilimitado.</t>
-  </si>
-  <si>
-    <t>inicie sesión en la Consola de administración de AWS.</t>
-  </si>
-  <si>
-    <t>realizar llamadas programáticas a AWS desde las API de AWS.</t>
-  </si>
-  <si>
-    <t>inicie sesión en instancias de Amazon EC2.</t>
-  </si>
-  <si>
-    <t>autenticarse en los repositorios de AWS CodeCommit.</t>
-  </si>
-  <si>
-    <t>Es un miembro del personal de AWS que brinda recomendaciones y mejores prácticas sobre cómo utilizar AWS.</t>
-  </si>
-  <si>
-    <t>Es una red de socios de AWS que brindan recomendaciones y mejores prácticas sobre cómo utilizar AWS.</t>
-  </si>
-  <si>
-    <t>Es una herramienta en línea con un conjunto de comprobaciones automatizadas que brinda recomendaciones sobre optimización de costos, rendimiento y seguridad.</t>
-  </si>
-  <si>
-    <r>
-      <t>Es otro nombre para los administradores de cuentas técnicas de AWS que brindan recomendaciones sobre optimización de costos, rendimiento y seguridad.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio o característica de AWS permite a una empresa visualizar, comprender y administrar los costos y el uso de AWS a lo largo del tiempo?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -3785,7 +4281,13 @@
   </si>
   <si>
     <r>
-      <t>¿Qué servicio o característica de AWS permite a una empresa visualizar, comprender y administrar los costos y el uso de AWS a lo largo del tiempo?</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio de AWS ofrece acceso bajo demanda a los informes de cumplimiento y seguridad de AWS?</t>
     </r>
     <r>
       <rPr>
@@ -3800,7 +4302,13 @@
   </si>
   <si>
     <r>
-      <t>¿Qué servicio de AWS ofrece acceso bajo demanda a los informes de cumplimiento y seguridad de AWS?</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Cuáles son los beneficios de utilizar la nube de AWS para empresas con clientes en muchos países del mundo?</t>
     </r>
     <r>
       <rPr>
@@ -3812,10 +4320,14 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>¿Cuáles son los beneficios de utilizar la nube de AWS para empresas con clientes en muchos países del mundo?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿mundo? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -3827,6 +4339,23 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Las empresas pueden implementar aplicaciones en varias regiones de AWS para reducir la latencia.</t>
+  </si>
+  <si>
+    <t>Amazon Translate traduce automáticamente las interfaces de sitios web de terceros a varios idiomas.</t>
+  </si>
+  <si>
+    <t>Amazon CloudFront tiene múltiples ubicaciones perimetrales en todo el mundo para reducir la latencia.</t>
+  </si>
+  <si>
+    <t>Amazon Comprehend permite a los usuarios crear aplicaciones que pueden responder a las solicitudes de los usuarios en muchos idiomas.</t>
+  </si>
+  <si>
+    <t>Elastic Load Balancing puede distribuir el tráfico web de aplicaciones a múltiples regiones de AWS en todo el mundo, lo que reduce la latencia.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3834,7 +4363,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>¿mundo? (Escoge dos.)</t>
+      <t>¿Qué servicio de AWS maneja los detalles de implementación de aprovisionamiento de capacidad, equilibrio de carga, Auto Scaling y monitoreo del estado de las aplicaciones?</t>
     </r>
     <r>
       <rPr>
@@ -3848,23 +4377,14 @@
     </r>
   </si>
   <si>
-    <t>Las empresas pueden implementar aplicaciones en varias regiones de AWS para reducir la latencia.</t>
-  </si>
-  <si>
-    <t>Amazon Translate traduce automáticamente las interfaces de sitios web de terceros a varios idiomas.</t>
-  </si>
-  <si>
-    <t>Amazon CloudFront tiene múltiples ubicaciones perimetrales en todo el mundo para reducir la latencia.</t>
-  </si>
-  <si>
-    <t>Amazon Comprehend permite a los usuarios crear aplicaciones que pueden responder a las solicitudes de los usuarios en muchos idiomas.</t>
-  </si>
-  <si>
-    <t>Elastic Load Balancing puede distribuir el tráfico web de aplicaciones a múltiples regiones de AWS en todo el mundo, lo que reduce la latencia.</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué servicio de AWS maneja los detalles de implementación de aprovisionamiento de capacidad, equilibrio de carga, Auto Scaling y monitoreo del estado de las aplicaciones?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio de AWS proporciona ACL de red entrante y saliente para reforzar la conectividad externa a Amazon EC2?</t>
     </r>
     <r>
       <rPr>
@@ -3878,8 +4398,29 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>¿Qué servicio de AWS proporciona ACL de red entrante y saliente para reforzar la conectividad externa a Amazon EC2?</t>
+    <t>reduce los gastos de capital.</t>
+  </si>
+  <si>
+    <t>requiere el pago por adelantado de los servicios de AWS.</t>
+  </si>
+  <si>
+    <t>solo es relevante para Amazon EC2, Amazon S3 y Amazon RDS.</t>
+  </si>
+  <si>
+    <t>reduce los gastos operativos.</t>
+  </si>
+  <si>
+    <t>Configuración del cortafuegos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Según el modelo de responsabilidad compartida de AWS, ¿cuál de los siguientes es un ejemplo de seguridad en la nube de AWS?</t>
     </r>
     <r>
       <rPr>
@@ -3893,23 +4434,23 @@
     </r>
   </si>
   <si>
-    <t>reduce los gastos de capital.</t>
-  </si>
-  <si>
-    <t>requiere el pago por adelantado de los servicios de AWS.</t>
-  </si>
-  <si>
-    <t>solo es relevante para Amazon EC2, Amazon S3 y Amazon RDS.</t>
-  </si>
-  <si>
-    <t>reduce los gastos operativos.</t>
-  </si>
-  <si>
-    <t>Configuración del cortafuegos</t>
-  </si>
-  <si>
-    <r>
-      <t>Según el modelo de responsabilidad compartida de AWS, ¿cuál de los siguientes es un ejemplo de seguridad en la nube de AWS?</t>
+    <t>Administrar ubicaciones de borde</t>
+  </si>
+  <si>
+    <t>Seguridad física</t>
+  </si>
+  <si>
+    <t>Infraestructura global</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Cuáles de los siguientes son pilares del marco de buena arquitectura de AWS? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -3923,23 +4464,32 @@
     </r>
   </si>
   <si>
-    <t>Administrar ubicaciones de borde</t>
-  </si>
-  <si>
-    <t>Seguridad física</t>
-  </si>
-  <si>
-    <t>Infraestructura global</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Cuáles de los siguientes son pilares del marco de buena arquitectura de AWS? (Escoge dos.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+    <t>Múltiples zonas de disponibilidad</t>
+  </si>
+  <si>
+    <t>Pago por horas a la carta</t>
+  </si>
+  <si>
+    <t>Pago parcial por adelantado</t>
+  </si>
+  <si>
+    <t>Todo pago por adelantado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Existe un menor riesgo de falla del servicio si un desastre natural causa una interrupción del servicio en una región de AWS determinada.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -3947,20 +4497,14 @@
     </r>
   </si>
   <si>
-    <t>Múltiples zonas de disponibilidad</t>
-  </si>
-  <si>
-    <t>Pago por horas a la carta</t>
-  </si>
-  <si>
-    <t>Pago parcial por adelantado</t>
-  </si>
-  <si>
-    <t>Todo pago por adelantado</t>
-  </si>
-  <si>
-    <r>
-      <t>Existe un menor riesgo de falla del servicio si un desastre natural causa una interrupción del servicio en una región de AWS determinada.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Habrá una mejor cobertura ya que las zonas de disponibilidad están geográficamente distantes y pueden servir a un área más amplia.</t>
     </r>
     <r>
       <rPr>
@@ -3975,7 +4519,13 @@
   </si>
   <si>
     <r>
-      <t>Habrá una mejor cobertura ya que las zonas de disponibilidad están geográficamente distantes y pueden servir a un área más amplia.</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Habrá una menor latencia de la aplicación que mejorará la experiencia del usuario.</t>
     </r>
     <r>
       <rPr>
@@ -3990,13 +4540,19 @@
   </si>
   <si>
     <r>
-      <t>Habrá una menor latencia de la aplicación que mejorará la experiencia del usuario.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Se le pregunta a un profesional de la nube cómo estimar el costo de utilizar una nueva aplicación en AWS. ¿Cual es la respuesta mas apropiada?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -4004,8 +4560,26 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Se le pregunta a un profesional de la nube cómo estimar el costo de utilizar una nueva aplicación en AWS. ¿Cual es la respuesta mas apropiada?</t>
+    <t>Informe al usuario que los precios de AWS permiten precios bajo demanda.</t>
+  </si>
+  <si>
+    <t>Dirija al usuario a la Calculadora mensual simple de AWS para obtener una estimación.</t>
+  </si>
+  <si>
+    <t>Utilice Amazon QuickSight para analizar el gasto actual en las instalaciones.</t>
+  </si>
+  <si>
+    <t>Utilice Amazon AppStream 2.0 para realizar análisis de precios en tiempo real.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa quiere migrar sus aplicaciones a una VPC en AWS. Estas aplicaciones necesitarán acceder a recursos locales.</t>
     </r>
     <r>
       <rPr>
@@ -4017,22 +4591,14 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>Informe al usuario que los precios de AWS permiten precios bajo demanda.</t>
-  </si>
-  <si>
-    <t>Dirija al usuario a la Calculadora mensual simple de AWS para obtener una estimación.</t>
-  </si>
-  <si>
-    <t>Utilice Amazon QuickSight para analizar el gasto actual en las instalaciones.</t>
-  </si>
-  <si>
-    <t>Utilice Amazon AppStream 2.0 para realizar análisis de precios en tiempo real.</t>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa quiere migrar sus aplicaciones a una VPC en AWS. Estas aplicaciones necesitarán acceder a recursos locales.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué combinación de acciones permitirá a la empresa lograr este objetivo? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -4044,6 +4610,23 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Utilice AWS Service Catalog para identificar una lista de recursos locales que se pueden migrar.</t>
+  </si>
+  <si>
+    <t>Cree una conexión VPN entre un dispositivo local y una puerta de enlace privada virtual en la nueva VPC.</t>
+  </si>
+  <si>
+    <t>Utilice Amazon Athena para consultar datos de los servidores de bases de datos locales.</t>
+  </si>
+  <si>
+    <t>Conecte el centro de datos local de la empresa a AWS mediante AWS Direct Connect.</t>
+  </si>
+  <si>
+    <t>Aproveche Amazon CloudFront para restringir el acceso al contenido web estático proporcionado a través de los servidores web locales de la empresa.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4051,7 +4634,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>¿Qué combinación de acciones permitirá a la empresa lograr este objetivo? (Escoge dos.)</t>
+      <t>Una aplicación web que se ejecuta en AWS recibió spam con solicitudes maliciosas de un conjunto recurrente de direcciones IP. ¿Qué servicio de AWS puede ayudar a proteger la aplicación y bloquear el tráfico malicioso?</t>
     </r>
     <r>
       <rPr>
@@ -4065,23 +4648,26 @@
     </r>
   </si>
   <si>
-    <t>Utilice AWS Service Catalog para identificar una lista de recursos locales que se pueden migrar.</t>
-  </si>
-  <si>
-    <t>Cree una conexión VPN entre un dispositivo local y una puerta de enlace privada virtual en la nueva VPC.</t>
-  </si>
-  <si>
-    <t>Utilice Amazon Athena para consultar datos de los servidores de bases de datos locales.</t>
-  </si>
-  <si>
-    <t>Conecte el centro de datos local de la empresa a AWS mediante AWS Direct Connect.</t>
-  </si>
-  <si>
-    <t>Aproveche Amazon CloudFront para restringir el acceso al contenido web estático proporcionado a través de los servidores web locales de la empresa.</t>
-  </si>
-  <si>
-    <r>
-      <t>Una aplicación web que se ejecuta en AWS recibió spam con solicitudes maliciosas de un conjunto recurrente de direcciones IP. ¿Qué servicio de AWS puede ayudar a proteger la aplicación y bloquear el tráfico malicioso?</t>
+    <t>automatice la migración de hardware local a los centros de datos de AWS.</t>
+  </si>
+  <si>
+    <t>permitir que un tercero automatice una auditoría de la infraestructura de AWS</t>
+  </si>
+  <si>
+    <t>entregar el código de la aplicación a AWS para que pueda ejecutarse en la infraestructura de AWS.</t>
+  </si>
+  <si>
+    <t>automatizar el proceso de aprovisionamiento de infraestructura.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa requiere una conexión de red dedicada entre sus servidores locales y la nube de AWS.</t>
     </r>
     <r>
       <rPr>
@@ -4093,22 +4679,14 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>automatice la migración de hardware local a los centros de datos de AWS.</t>
-  </si>
-  <si>
-    <t>permitir que un tercero automatice una auditoría de la infraestructura de AWS</t>
-  </si>
-  <si>
-    <t>entregar el código de la aplicación a AWS para que pueda ejecutarse en la infraestructura de AWS.</t>
-  </si>
-  <si>
-    <t>automatizar el proceso de aprovisionamiento de infraestructura.</t>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa requiere una conexión de red dedicada entre sus servidores locales y la nube de AWS.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio de AWS debería utilizarse?</t>
     </r>
     <r>
       <rPr>
@@ -4120,6 +4698,26 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>modelo y provisión de recursos.</t>
+  </si>
+  <si>
+    <t>actualizar el código de la aplicación.</t>
+  </si>
+  <si>
+    <t>configurar lagos de datos.</t>
+  </si>
+  <si>
+    <t>crear informes para facturación.</t>
+  </si>
+  <si>
+    <t>Abra la consola de AWS IAM y verifique los filtros de reglas de entrada para acceso abierto.</t>
+  </si>
+  <si>
+    <t>En AWS Config, cree una regla personalizada que invoque una función de AWS Lambda para revisar las reglas de acceso entrante.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4127,7 +4725,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>¿Qué servicio de AWS debería utilizarse?</t>
+      <t>¿Cuáles son los beneficios de desarrollar y ejecutar una nueva aplicación en la nube de AWS en comparación con la aplicación local? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -4141,26 +4739,23 @@
     </r>
   </si>
   <si>
-    <t>modelo y provisión de recursos.</t>
-  </si>
-  <si>
-    <t>actualizar el código de la aplicación.</t>
-  </si>
-  <si>
-    <t>configurar lagos de datos.</t>
-  </si>
-  <si>
-    <t>crear informes para facturación.</t>
-  </si>
-  <si>
-    <t>Abra la consola de AWS IAM y verifique los filtros de reglas de entrada para acceso abierto.</t>
-  </si>
-  <si>
-    <t>En AWS Config, cree una regla personalizada que invoque una función de AWS Lambda para revisar las reglas de acceso entrante.</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Cuáles son los beneficios de desarrollar y ejecutar una nueva aplicación en la nube de AWS en comparación con la aplicación local? (Escoge dos.)</t>
+    <t>AWS facilita la arquitectura para lograr alta disponibilidad.</t>
+  </si>
+  <si>
+    <t>AWS puede adaptarse fácilmente a los cambios en la demanda de aplicaciones.</t>
+  </si>
+  <si>
+    <t>AWS se encarga de aplicar parches de seguridad a las aplicaciones.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Un usuario necesita un informe de evaluación de seguridad automatizado que identifique el acceso no deseado a la red a instancias de Amazon EC2 y las vulnerabilidades en esas instancias. ¿Qué servicio de AWS proporcionará este informe de evaluación?</t>
     </r>
     <r>
       <rPr>
@@ -4174,17 +4769,14 @@
     </r>
   </si>
   <si>
-    <t>AWS facilita la arquitectura para lograr alta disponibilidad.</t>
-  </si>
-  <si>
-    <t>AWS puede adaptarse fácilmente a los cambios en la demanda de aplicaciones.</t>
-  </si>
-  <si>
-    <t>AWS se encarga de aplicar parches de seguridad a las aplicaciones.</t>
-  </si>
-  <si>
-    <r>
-      <t>Un usuario necesita un informe de evaluación de seguridad automatizado que identifique el acceso no deseado a la red a instancias de Amazon EC2 y las vulnerabilidades en esas instancias. ¿Qué servicio de AWS proporcionará este informe de evaluación?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Cómo puede una empresa aislar los costos de las cargas de trabajo de producción y no producción en AWS?</t>
     </r>
     <r>
       <rPr>
@@ -4198,8 +4790,26 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>¿Cómo puede una empresa aislar los costos de las cargas de trabajo de producción y no producción en AWS?</t>
+    <t>Cree roles de gestión de identidades y accesos (IAM) para cargas de trabajo de producción y no producción.</t>
+  </si>
+  <si>
+    <t>Utilice diferentes cuentas para gastos de producción y no producción.</t>
+  </si>
+  <si>
+    <t>Utilice Amazon EC2 para cargas de trabajo que no sean de producción y otros servicios para cargas de trabajo de producción.</t>
+  </si>
+  <si>
+    <t>Utilice Amazon CloudWatch para monitorear el uso de los servicios.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Dónde pueden los usuarios encontrar un catálogo de proveedores de soluciones de seguridad de terceros reconocidos por AWS?</t>
     </r>
     <r>
       <rPr>
@@ -4213,20 +4823,14 @@
     </r>
   </si>
   <si>
-    <t>Cree roles de gestión de identidades y accesos (IAM) para cargas de trabajo de producción y no producción.</t>
-  </si>
-  <si>
-    <t>Utilice diferentes cuentas para gastos de producción y no producción.</t>
-  </si>
-  <si>
-    <t>Utilice Amazon EC2 para cargas de trabajo que no sean de producción y otros servicios para cargas de trabajo de producción.</t>
-  </si>
-  <si>
-    <t>Utilice Amazon CloudWatch para monitorear el uso de los servicios.</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Dónde pueden los usuarios encontrar un catálogo de proveedores de soluciones de seguridad de terceros reconocidos por AWS?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Un profesional de la nube necesita almacenar datos durante 7 años para cumplir con los requisitos reglamentarios.</t>
     </r>
     <r>
       <rPr>
@@ -4238,10 +4842,14 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Un profesional de la nube necesita almacenar datos durante 7 años para cumplir con los requisitos reglamentarios.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué servicio de AWS cumplirá con este requisito al menor costo?</t>
     </r>
     <r>
       <rPr>
@@ -4253,6 +4861,8 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4260,7 +4870,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>¿Qué servicio de AWS cumplirá con este requisito al menor costo?</t>
+      <t>¿Cuáles son los beneficios inmediatos de utilizar la nube de AWS? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -4274,8 +4884,29 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>¿Cuáles son los beneficios inmediatos de utilizar la nube de AWS? (Escoge dos.)</t>
+    <t>Mayor personal de TI.</t>
+  </si>
+  <si>
+    <t>Control de usuarios de la infraestructura.</t>
+  </si>
+  <si>
+    <t>AWS es responsable de la seguridad en la nube</t>
+  </si>
+  <si>
+    <t>Garantiza que el almacenamiento de datos local sea 99,999999999 % duradero.</t>
+  </si>
+  <si>
+    <t>Conecta el almacenamiento de datos local a la nube de AWS.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué deben hacer los usuarios si quieren instalar una aplicación en lugares geográficamente aislados?</t>
     </r>
     <r>
       <rPr>
@@ -4289,23 +4920,20 @@
     </r>
   </si>
   <si>
-    <t>Mayor personal de TI.</t>
-  </si>
-  <si>
-    <t>Control de usuarios de la infraestructura.</t>
-  </si>
-  <si>
-    <t>AWS es responsable de la seguridad en la nube</t>
-  </si>
-  <si>
-    <t>Garantiza que el almacenamiento de datos local sea 99,999999999 % duradero.</t>
-  </si>
-  <si>
-    <t>Conecta el almacenamiento de datos local a la nube de AWS.</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Qué deben hacer los usuarios si quieren instalar una aplicación en lugares geográficamente aislados?</t>
+    <t>Implemente la aplicación en una VPC de Amazon.</t>
+  </si>
+  <si>
+    <t>Implemente la aplicación en varias regiones de AWS.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Un sistema en la nube de AWS está diseñado para resistir la falla de uno o más componentes. ¿De qué es este un ejemplo?</t>
     </r>
     <r>
       <rPr>
@@ -4319,14 +4947,14 @@
     </r>
   </si>
   <si>
-    <t>Implemente la aplicación en una VPC de Amazon.</t>
-  </si>
-  <si>
-    <t>Implemente la aplicación en varias regiones de AWS.</t>
-  </si>
-  <si>
-    <r>
-      <t>Un sistema en la nube de AWS está diseñado para resistir la falla de uno o más componentes. ¿De qué es este un ejemplo?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Un profesional de la nube necesita una conexión consistente y dedicada entre los recursos de AWS y un sistema local. ¿Qué servicio de AWS puede cumplir este requisito?</t>
     </r>
     <r>
       <rPr>
@@ -4341,7 +4969,13 @@
   </si>
   <si>
     <r>
-      <t>Un profesional de la nube necesita una conexión consistente y dedicada entre los recursos de AWS y un sistema local. ¿Qué servicio de AWS puede cumplir este requisito?</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dentro del modelo de responsabilidad compartida de AWS, ¿quién es responsable de la seguridad y el cumplimiento?</t>
     </r>
     <r>
       <rPr>
@@ -4355,8 +4989,47 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Dentro del modelo de responsabilidad compartida de AWS, ¿quién es responsable de la seguridad y el cumplimiento?</t>
+    <t>AWS y el cliente comparten la responsabilidad.</t>
+  </si>
+  <si>
+    <t>AWS comparte la responsabilidad con el organismo rector correspondiente.</t>
+  </si>
+  <si>
+    <t>una política de contraseñas.</t>
+  </si>
+  <si>
+    <t>una clave de acceso/secreta.</t>
+  </si>
+  <si>
+    <t>una política gestionada.</t>
+  </si>
+  <si>
+    <t>una clave API.</t>
+  </si>
+  <si>
+    <t>Por el tiempo que tarda en ejecutarse la función Lambda.</t>
+  </si>
+  <si>
+    <t>Por el número de versiones de una función Lambda específica.</t>
+  </si>
+  <si>
+    <t>Por la cantidad de solicitudes realizadas para una función Lambda determinada.</t>
+  </si>
+  <si>
+    <t>Por el lenguaje de programación que se utiliza para la función Lambda.</t>
+  </si>
+  <si>
+    <t>Por el número total de funciones Lambda en una cuenta de AWS.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Cuál de las siguientes describe las relaciones entre las regiones, zonas de disponibilidad y ubicaciones de borde de AWS? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -4370,41 +5043,35 @@
     </r>
   </si>
   <si>
-    <t>AWS y el cliente comparten la responsabilidad.</t>
-  </si>
-  <si>
-    <t>AWS comparte la responsabilidad con el organismo rector correspondiente.</t>
-  </si>
-  <si>
-    <t>una política de contraseñas.</t>
-  </si>
-  <si>
-    <t>una clave de acceso/secreta.</t>
-  </si>
-  <si>
-    <t>una política gestionada.</t>
-  </si>
-  <si>
-    <t>una clave API.</t>
-  </si>
-  <si>
-    <t>Por el tiempo que tarda en ejecutarse la función Lambda.</t>
-  </si>
-  <si>
-    <t>Por el número de versiones de una función Lambda específica.</t>
-  </si>
-  <si>
-    <t>Por la cantidad de solicitudes realizadas para una función Lambda determinada.</t>
-  </si>
-  <si>
-    <t>Por el lenguaje de programación que se utiliza para la función Lambda.</t>
-  </si>
-  <si>
-    <t>Por el número total de funciones Lambda en una cuenta de AWS.</t>
-  </si>
-  <si>
-    <r>
-      <t>¿Cuál de las siguientes describe las relaciones entre las regiones, zonas de disponibilidad y ubicaciones de borde de AWS? (Escoge dos.)</t>
+    <t>Hay más regiones de AWS que zonas de disponibilidad.</t>
+  </si>
+  <si>
+    <t>Hay más ubicaciones de borde que regiones de AWS.</t>
+  </si>
+  <si>
+    <t>Hay más zonas de disponibilidad que regiones de AWS.</t>
+  </si>
+  <si>
+    <t>WAF rules</t>
+  </si>
+  <si>
+    <t>DDoS protection</t>
+  </si>
+  <si>
+    <t>Identity and Access Management (IAM) permissions and access to resources</t>
+  </si>
+  <si>
+    <t>Data encryption</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Una empresa quiere crear sus nuevas cargas de trabajo de aplicaciones en la nube de AWS en lugar de utilizar recursos locales.</t>
     </r>
     <r>
       <rPr>
@@ -4416,31 +5083,14 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>Hay más regiones de AWS que zonas de disponibilidad.</t>
-  </si>
-  <si>
-    <t>Hay más ubicaciones de borde que regiones de AWS.</t>
-  </si>
-  <si>
-    <t>Hay más zonas de disponibilidad que regiones de AWS.</t>
-  </si>
-  <si>
-    <t>WAF rules</t>
-  </si>
-  <si>
-    <t>DDoS protection</t>
-  </si>
-  <si>
-    <t>Identity and Access Management (IAM) permissions and access to resources</t>
-  </si>
-  <si>
-    <t>Data encryption</t>
-  </si>
-  <si>
-    <r>
-      <t>Una empresa quiere crear sus nuevas cargas de trabajo de aplicaciones en la nube de AWS en lugar de utilizar recursos locales.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¿Qué gasto se puede reducir utilizando la Nube de AWS?</t>
     </r>
     <r>
       <rPr>
@@ -4452,6 +5102,65 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>El costo de escribir código Java o Node .js personalizado</t>
+  </si>
+  <si>
+    <t>Pruebas de penetración para la seguridad</t>
+  </si>
+  <si>
+    <t>Hardware necesario para soportar nuevas aplicaciones.</t>
+  </si>
+  <si>
+    <t>Redacción de casos de prueba específicos para aplicaciones de terceros.</t>
+  </si>
+  <si>
+    <t>Solicite AWS Snowball</t>
+  </si>
+  <si>
+    <t>Todos los recursos se ejecutan utilizando la infraestructura local.</t>
+  </si>
+  <si>
+    <t>Algunos recursos se ejecutan localmente y otros se ejecutan en un centro de colocación.</t>
+  </si>
+  <si>
+    <t>Algunos recursos se ejecutan localmente y otros se ejecutan en la nube de AWS.</t>
+  </si>
+  <si>
+    <t>Al no tener responsabilidad por los costos de licencia de terceros</t>
+  </si>
+  <si>
+    <t>Al no tener gastos operativos</t>
+  </si>
+  <si>
+    <t>Al hacer que AWS administre aplicaciones</t>
+  </si>
+  <si>
+    <t>Garantizar la conectividad de red desde AWS a Internet</t>
+  </si>
+  <si>
+    <t>Parchar y corregir fallas dentro de la infraestructura de la nube de AWS</t>
+  </si>
+  <si>
+    <t>Garantizar la seguridad física de los centros de datos en la nube</t>
+  </si>
+  <si>
+    <t>Garantizar que los volúmenes de Amazon EBS estén respaldados</t>
+  </si>
+  <si>
+    <t>Costo mensual de tasa fija</t>
+  </si>
+  <si>
+    <t>No es necesario adivinar los requisitos de capacidad</t>
+  </si>
+  <si>
+    <t>Mayor velocidad de comercialización</t>
+  </si>
+  <si>
+    <t>Mayor gasto de capital inicial</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4459,7 +5168,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>¿Qué gasto se puede reducir utilizando la Nube de AWS?</t>
+      <t>Al comparar el costo total de propiedad (TCO) de una infraestructura local con una arquitectura en la nube, ¿qué costos se deben considerar? (Escoge dos.)</t>
     </r>
     <r>
       <rPr>
@@ -4473,66 +5182,18 @@
     </r>
   </si>
   <si>
-    <t>El costo de escribir código Java o Node .js personalizado</t>
-  </si>
-  <si>
-    <t>Pruebas de penetración para la seguridad</t>
-  </si>
-  <si>
-    <t>Hardware necesario para soportar nuevas aplicaciones.</t>
-  </si>
-  <si>
-    <t>Redacción de casos de prueba específicos para aplicaciones de terceros.</t>
-  </si>
-  <si>
-    <t>Solicite AWS Snowball</t>
-  </si>
-  <si>
-    <t>Todos los recursos se ejecutan utilizando la infraestructura local.</t>
-  </si>
-  <si>
-    <t>Algunos recursos se ejecutan localmente y otros se ejecutan en un centro de colocación.</t>
-  </si>
-  <si>
-    <t>Algunos recursos se ejecutan localmente y otros se ejecutan en la nube de AWS.</t>
-  </si>
-  <si>
-    <t>Al no tener responsabilidad por los costos de licencia de terceros</t>
-  </si>
-  <si>
-    <t>Al no tener gastos operativos</t>
-  </si>
-  <si>
-    <t>Al hacer que AWS administre aplicaciones</t>
-  </si>
-  <si>
-    <t>Garantizar la conectividad de red desde AWS a Internet</t>
-  </si>
-  <si>
-    <t>Parchar y corregir fallas dentro de la infraestructura de la nube de AWS</t>
-  </si>
-  <si>
-    <t>Garantizar la seguridad física de los centros de datos en la nube</t>
-  </si>
-  <si>
-    <t>Garantizar que los volúmenes de Amazon EBS estén respaldados</t>
-  </si>
-  <si>
-    <t>Costo mensual de tasa fija</t>
-  </si>
-  <si>
-    <t>No es necesario adivinar los requisitos de capacidad</t>
-  </si>
-  <si>
-    <t>Mayor velocidad de comercialización</t>
-  </si>
-  <si>
-    <t>Mayor gasto de capital inicial</t>
-  </si>
-  <si>
-    <r>
-      <t>Al comparar el costo total de propiedad (TCO) de una infraestructura local con una arquitectura en la nube, ¿qué costos se deben considerar? (Escoge dos.)</t>
-    </r>
+    <t>Las tarifas de procesamiento de tarjetas de crédito para transacciones de aplicaciones en la nube.</t>
+  </si>
+  <si>
+    <t>El costo de comprar e instalar hardware de servidor en los datos locales.</t>
+  </si>
+  <si>
+    <t>El costo de administrar la infraestructura, incluido el sistema operativo y las instalaciones de software, parches, copias de seguridad y recuperación de fallas.</t>
+  </si>
+  <si>
+    <t>Los costos de publicidad asociados con una campaña en curso en toda la empresa.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4540,24 +5201,6 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Las tarifas de procesamiento de tarjetas de crédito para transacciones de aplicaciones en la nube.</t>
-  </si>
-  <si>
-    <t>El costo de comprar e instalar hardware de servidor en los datos locales.</t>
-  </si>
-  <si>
-    <t>El costo de administrar la infraestructura, incluido el sistema operativo y las instalaciones de software, parches, copias de seguridad y recuperación de fallas.</t>
-  </si>
-  <si>
-    <t>Los costos de publicidad asociados con una campaña en curso en toda la empresa.</t>
-  </si>
-  <si>
-    <r>
       <t>¿Qué característica de AWS permite a una empresa aprovechar los niveles de uso de servicios en varias cuentas de miembros?</t>
     </r>
     <r>
@@ -5889,8 +6532,8 @@
   <sheetPr/>
   <dimension ref="A1:G456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5984,7 +6627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="166.5" spans="1:7">
+    <row r="5" ht="77.25" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -6005,7 +6648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="166.5" spans="1:7">
+    <row r="6" ht="77.25" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -6026,7 +6669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="294" spans="1:7">
+    <row r="7" ht="115.5" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -6047,7 +6690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="243" spans="1:7">
+    <row r="8" ht="102.75" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -6068,7 +6711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="153.75" spans="1:7">
+    <row r="9" ht="64.5" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -6089,7 +6732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="268.5" spans="1:7">
+    <row r="10" ht="115.5" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -6110,7 +6753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="115.5" spans="1:7">
+    <row r="11" ht="77.25" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -6131,7 +6774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="153.75" spans="1:7">
+    <row r="12" ht="77.25" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -6154,7 +6797,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" ht="128.25" spans="1:7">
+    <row r="13" ht="51.75" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -6175,7 +6818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="192" spans="1:7">
+    <row r="14" ht="77.25" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -6196,7 +6839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="179.25" spans="1:7">
+    <row r="15" ht="102.75" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
@@ -6217,7 +6860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="153.75" spans="1:7">
+    <row r="16" ht="64.5" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
@@ -6240,7 +6883,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" ht="102.75" spans="1:7">
+    <row r="17" ht="39" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -6263,7 +6906,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" ht="179.25" spans="1:7">
+    <row r="18" ht="90" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>90</v>
       </c>
@@ -6284,7 +6927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="102.75" spans="1:7">
+    <row r="19" ht="64.5" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>95</v>
       </c>
@@ -6305,7 +6948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="179.25" spans="1:7">
+    <row r="20" ht="77.25" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -6326,7 +6969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" ht="217.5" spans="1:7">
+    <row r="21" ht="90" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
@@ -6347,7 +6990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="102.75" spans="1:7">
+    <row r="22" ht="64.5" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
@@ -6368,7 +7011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="179.25" spans="1:7">
+    <row r="23" ht="77.25" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -6389,7 +7032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="153.75" spans="1:7">
+    <row r="24" ht="102.75" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
@@ -6410,7 +7053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="153.75" spans="1:7">
+    <row r="25" ht="64.5" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -6431,7 +7074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" ht="141" spans="1:7">
+    <row r="26" ht="64.5" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
@@ -6452,7 +7095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" ht="319.5" spans="1:7">
+    <row r="27" ht="128.25" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -6473,7 +7116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" ht="192" spans="1:7">
+    <row r="28" ht="77.25" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>133</v>
       </c>
@@ -6494,7 +7137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" ht="166.5" spans="1:7">
+    <row r="29" ht="77.25" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>135</v>
       </c>
@@ -6517,7 +7160,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" ht="281.25" spans="1:7">
+    <row r="30" ht="115.5" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -6538,7 +7181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="179.25" spans="1:7">
+    <row r="31" ht="77.25" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
@@ -6559,7 +7202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" ht="141" spans="1:7">
+    <row r="32" ht="64.5" spans="1:7">
       <c r="A32" s="4" t="s">
         <v>125</v>
       </c>
@@ -6580,7 +7223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" ht="319.5" spans="1:7">
+    <row r="33" ht="128.25" spans="1:7">
       <c r="A33" s="4" t="s">
         <v>148</v>
       </c>
@@ -6601,7 +7244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" ht="192" spans="1:7">
+    <row r="34" ht="77.25" spans="1:7">
       <c r="A34" s="4" t="s">
         <v>133</v>
       </c>
@@ -6622,7 +7265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" ht="166.5" spans="1:7">
+    <row r="35" ht="77.25" spans="1:7">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -6645,7 +7288,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" ht="281.25" spans="1:7">
+    <row r="36" ht="115.5" spans="1:7">
       <c r="A36" s="4" t="s">
         <v>149</v>
       </c>
@@ -6666,7 +7309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" ht="179.25" spans="1:7">
+    <row r="37" ht="77.25" spans="1:7">
       <c r="A37" s="4" t="s">
         <v>143</v>
       </c>
@@ -6687,7 +7330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="115.5" spans="1:7">
+    <row r="38" ht="77.25" spans="1:7">
       <c r="A38" s="4" t="s">
         <v>150</v>
       </c>
@@ -6708,7 +7351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" ht="102.75" spans="1:7">
+    <row r="39" ht="39" spans="1:7">
       <c r="A39" s="4" t="s">
         <v>155</v>
       </c>
@@ -6729,7 +7372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" ht="115.5" spans="1:7">
+    <row r="40" ht="39" spans="1:7">
       <c r="A40" s="4" t="s">
         <v>159</v>
       </c>
@@ -6752,7 +7395,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" ht="141" spans="1:7">
+    <row r="41" ht="90" spans="1:7">
       <c r="A41" s="4" t="s">
         <v>166</v>
       </c>
@@ -6775,7 +7418,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" ht="166.5" spans="1:7">
+    <row r="42" ht="77.25" spans="1:7">
       <c r="A42" s="4" t="s">
         <v>173</v>
       </c>
@@ -6796,7 +7439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" ht="141" spans="1:7">
+    <row r="43" ht="102.75" spans="1:7">
       <c r="A43" s="4" t="s">
         <v>176</v>
       </c>
@@ -6817,7 +7460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" ht="128.25" spans="1:7">
+    <row r="44" ht="51.75" spans="1:7">
       <c r="A44" s="4" t="s">
         <v>181</v>
       </c>
@@ -6838,7 +7481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" ht="192" spans="1:7">
+    <row r="45" ht="115.5" spans="1:7">
       <c r="A45" s="4" t="s">
         <v>186</v>
       </c>
@@ -6859,7 +7502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="179.25" spans="1:7">
+    <row r="46" ht="115.5" spans="1:7">
       <c r="A46" s="4" t="s">
         <v>191</v>
       </c>
@@ -6882,7 +7525,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" ht="192" spans="1:7">
+    <row r="47" ht="64.5" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>198</v>
       </c>
@@ -6903,7 +7546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" ht="217.5" spans="1:7">
+    <row r="48" ht="90" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>202</v>
       </c>
@@ -6924,7 +7567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" ht="230.25" spans="1:7">
+    <row r="49" ht="90" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>205</v>
       </c>
@@ -6945,7 +7588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="408.75" spans="1:7">
+    <row r="50" ht="166.5" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>208</v>
       </c>
@@ -6966,7 +7609,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" ht="217.5" spans="1:7">
+    <row r="51" ht="115.5" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>211</v>
       </c>
@@ -6987,7 +7630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="294" spans="1:7">
+    <row r="52" ht="115.5" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>216</v>
       </c>
@@ -7008,7 +7651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" ht="166.5" spans="1:7">
+    <row r="53" ht="64.5" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>217</v>
       </c>
@@ -7031,7 +7674,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" ht="281.25" spans="1:7">
+    <row r="54" ht="102.75" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>220</v>
       </c>
@@ -7052,7 +7695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="128.25" spans="1:7">
+    <row r="55" ht="51.75" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>222</v>
       </c>
@@ -7075,7 +7718,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="281.25" spans="1:7">
+    <row r="56" ht="115.5" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>225</v>
       </c>
@@ -7096,7 +7739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" ht="153.75" spans="1:7">
+    <row r="57" ht="77.25" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>227</v>
       </c>
@@ -7119,7 +7762,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" ht="115.5" spans="1:7">
+    <row r="58" ht="39" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>234</v>
       </c>
@@ -7140,7 +7783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" ht="115.5" spans="1:7">
+    <row r="59" ht="77.25" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>237</v>
       </c>
@@ -7161,7 +7804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" ht="230.25" spans="1:7">
+    <row r="60" ht="166.5" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>242</v>
       </c>
@@ -7182,7 +7825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" ht="115.5" spans="1:7">
+    <row r="61" ht="102.75" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>247</v>
       </c>
@@ -7203,7 +7846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" ht="281.25" spans="1:7">
+    <row r="62" ht="115.5" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>252</v>
       </c>
@@ -7224,7 +7867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="166.5" spans="1:7">
+    <row r="63" ht="64.5" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>257</v>
       </c>
@@ -7247,7 +7890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" ht="77.25" spans="1:7">
+    <row r="64" ht="64.5" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>262</v>
       </c>
@@ -7268,7 +7911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" ht="153.75" spans="1:7">
+    <row r="65" ht="77.25" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>267</v>
       </c>
@@ -10108,24 +10751,24 @@
         <v>599</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>87</v>
+        <v>600</v>
       </c>
     </row>
     <row r="198" ht="64.5" spans="1:7">
       <c r="A198" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F198" s="7"/>
       <c r="G198" s="4" t="s">
@@ -10134,13 +10777,13 @@
     </row>
     <row r="199" ht="51.75" spans="1:7">
       <c r="A199" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>134</v>
@@ -10155,7 +10798,7 @@
     </row>
     <row r="200" ht="77.25" spans="1:7">
       <c r="A200" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>160</v>
@@ -10176,16 +10819,16 @@
     </row>
     <row r="201" ht="77.25" spans="1:7">
       <c r="A201" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>164</v>
@@ -10197,19 +10840,19 @@
     </row>
     <row r="202" ht="115.5" spans="1:7">
       <c r="A202" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="4" t="s">
@@ -10218,22 +10861,22 @@
     </row>
     <row r="203" ht="64.5" spans="1:7">
       <c r="A203" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>87</v>
@@ -10241,19 +10884,19 @@
     </row>
     <row r="204" ht="39" spans="1:7">
       <c r="A204" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F204" s="7"/>
       <c r="G204" s="4" t="s">
@@ -10262,7 +10905,7 @@
     </row>
     <row r="205" ht="90" spans="1:7">
       <c r="A205" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>23</v>
@@ -10271,13 +10914,13 @@
         <v>162</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>233</v>
@@ -10285,19 +10928,19 @@
     </row>
     <row r="206" ht="90" spans="1:7">
       <c r="A206" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F206" s="7"/>
       <c r="G206" s="4" t="s">
@@ -10306,13 +10949,13 @@
     </row>
     <row r="207" ht="77.25" spans="1:7">
       <c r="A207" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>146</v>
@@ -10327,19 +10970,19 @@
     </row>
     <row r="208" ht="115.5" spans="1:7">
       <c r="A208" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F208" s="7"/>
       <c r="G208" s="4" t="s">
@@ -10348,7 +10991,7 @@
     </row>
     <row r="209" ht="39" spans="1:7">
       <c r="A209" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>64</v>
@@ -10369,19 +11012,19 @@
     </row>
     <row r="210" ht="90" spans="1:7">
       <c r="A210" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F210" s="7"/>
       <c r="G210" s="4" t="s">
@@ -10390,19 +11033,19 @@
     </row>
     <row r="211" ht="77.25" spans="1:7">
       <c r="A211" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>438</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="4" t="s">
@@ -10411,10 +11054,10 @@
     </row>
     <row r="212" ht="90" spans="1:7">
       <c r="A212" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>204</v>
@@ -10423,7 +11066,7 @@
         <v>161</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F212" s="7"/>
       <c r="G212" s="4" t="s">
@@ -10432,13 +11075,13 @@
     </row>
     <row r="213" ht="90" spans="1:7">
       <c r="A213" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>46</v>
@@ -10453,10 +11096,10 @@
     </row>
     <row r="214" ht="51.75" spans="1:7">
       <c r="A214" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>464</v>
@@ -10474,7 +11117,7 @@
     </row>
     <row r="215" ht="77.25" spans="1:7">
       <c r="A215" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>275</v>
@@ -11158,7 +11801,7 @@
         <v>440</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>442</v>
@@ -12860,25 +13503,25 @@
     </row>
     <row r="327" ht="192" spans="1:7">
       <c r="A327" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F327" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>660</v>
+        <v>450</v>
       </c>
     </row>
     <row r="328" ht="64.5" spans="1:7">
@@ -12899,7 +13542,7 @@
       </c>
       <c r="F328" s="3"/>
       <c r="G328" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" ht="51.75" spans="1:7">
@@ -12920,7 +13563,7 @@
       </c>
       <c r="F329" s="3"/>
       <c r="G329" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="330" ht="166.5" spans="1:7">
@@ -12941,7 +13584,7 @@
       </c>
       <c r="F330" s="3"/>
       <c r="G330" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="331" ht="90" spans="1:7">
@@ -12962,7 +13605,7 @@
       </c>
       <c r="F331" s="3"/>
       <c r="G331" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" ht="179.25" spans="1:7">
@@ -12983,7 +13626,7 @@
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="333" ht="115.5" spans="1:7">
@@ -13004,7 +13647,7 @@
       </c>
       <c r="F333" s="3"/>
       <c r="G333" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334" ht="166.5" spans="1:7">
@@ -13027,18 +13670,18 @@
         <v>204</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>689</v>
+        <v>172</v>
       </c>
     </row>
     <row r="335" ht="26.25" spans="1:7">
       <c r="A335" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>89</v>
@@ -13048,56 +13691,56 @@
       </c>
       <c r="F335" s="3"/>
       <c r="G335" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="336" ht="51.75" spans="1:7">
       <c r="A336" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="C336" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="D336" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D336" s="2" t="s">
+      <c r="E336" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="E336" s="2" t="s">
+      <c r="F336" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="F336" s="2" t="s">
-        <v>697</v>
-      </c>
       <c r="G336" s="1" t="s">
-        <v>689</v>
+        <v>172</v>
       </c>
     </row>
     <row r="337" ht="115.5" spans="1:7">
       <c r="A337" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="C337" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="D337" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="E337" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="F337" s="3"/>
       <c r="G337" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338" ht="64.5" spans="1:7">
       <c r="A338" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>73</v>
@@ -13106,111 +13749,111 @@
         <v>75</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>706</v>
+        <v>219</v>
       </c>
     </row>
     <row r="339" ht="77.25" spans="1:7">
       <c r="A339" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="D339" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="E339" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D339" s="2" t="s">
+      <c r="F339" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="E339" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="F339" s="2" t="s">
-        <v>712</v>
-      </c>
       <c r="G339" s="1" t="s">
-        <v>713</v>
+        <v>87</v>
       </c>
     </row>
     <row r="340" ht="115.5" spans="1:7">
       <c r="A340" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D340" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="E340" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="F340" s="3"/>
       <c r="G340" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" ht="153.75" spans="1:7">
       <c r="A341" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D341" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="E341" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="F341" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="D341" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="F341" s="2" t="s">
-        <v>724</v>
-      </c>
       <c r="G341" s="1" t="s">
-        <v>725</v>
+        <v>197</v>
       </c>
     </row>
     <row r="342" ht="90" spans="1:7">
       <c r="A342" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E342" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="F342" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="E342" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>731</v>
-      </c>
       <c r="G342" s="1" t="s">
-        <v>713</v>
+        <v>87</v>
       </c>
     </row>
     <row r="343" ht="102.75" spans="1:7">
       <c r="A343" s="10" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>394</v>
@@ -13219,19 +13862,19 @@
         <v>256</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>395</v>
       </c>
       <c r="F343" s="3"/>
       <c r="G343" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344" ht="77.25" spans="1:7">
       <c r="A344" s="10" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>426</v>
@@ -13249,15 +13892,15 @@
         <v>271</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>735</v>
+        <v>67</v>
       </c>
     </row>
     <row r="345" ht="77.25" spans="1:7">
       <c r="A345" s="10" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>313</v>
@@ -13270,12 +13913,12 @@
       </c>
       <c r="F345" s="3"/>
       <c r="G345" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="346" ht="115.5" spans="1:7">
       <c r="A346" s="10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>291</v>
@@ -13287,16 +13930,16 @@
         <v>293</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F346" s="3"/>
       <c r="G346" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347" ht="90" spans="1:7">
       <c r="A347" s="10" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>28</v>
@@ -13312,12 +13955,12 @@
       </c>
       <c r="F347" s="3"/>
       <c r="G347" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="348" ht="90" spans="1:7">
       <c r="A348" s="10" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>203</v>
@@ -13333,12 +13976,12 @@
       </c>
       <c r="F348" s="3"/>
       <c r="G348" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349" ht="90" spans="1:7">
       <c r="A349" s="10" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>103</v>
@@ -13354,12 +13997,12 @@
       </c>
       <c r="F349" s="3"/>
       <c r="G349" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="350" ht="179.25" spans="1:7">
       <c r="A350" s="10" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>209</v>
@@ -13375,12 +14018,12 @@
       </c>
       <c r="F350" s="3"/>
       <c r="G350" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="351" ht="115.5" spans="1:7">
       <c r="A351" s="10" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>212</v>
@@ -13389,19 +14032,19 @@
         <v>213</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F351" s="3"/>
       <c r="G351" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" ht="128.25" spans="1:7">
       <c r="A352" s="10" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>134</v>
@@ -13417,12 +14060,12 @@
       </c>
       <c r="F352" s="3"/>
       <c r="G352" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="353" ht="77.25" spans="1:7">
       <c r="A353" s="10" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>106</v>
@@ -13440,12 +14083,12 @@
         <v>218</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>706</v>
+        <v>219</v>
       </c>
     </row>
     <row r="354" ht="115.5" spans="1:7">
       <c r="A354" s="10" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>108</v>
@@ -13461,12 +14104,12 @@
       </c>
       <c r="F354" s="3"/>
       <c r="G354" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="355" ht="64.5" spans="1:7">
       <c r="A355" s="10" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>103</v>
@@ -13484,12 +14127,12 @@
         <v>73</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>689</v>
+        <v>172</v>
       </c>
     </row>
     <row r="356" ht="115.5" spans="1:7">
       <c r="A356" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>73</v>
@@ -13505,35 +14148,35 @@
       </c>
       <c r="F356" s="3"/>
       <c r="G356" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="357" ht="90" spans="1:7">
       <c r="A357" s="10" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>756</v>
+        <v>233</v>
       </c>
     </row>
     <row r="358" ht="51.75" spans="1:7">
       <c r="A358" s="10" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>160</v>
@@ -13549,12 +14192,12 @@
       </c>
       <c r="F358" s="3"/>
       <c r="G358" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" ht="77.25" spans="1:7">
       <c r="A359" s="10" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>238</v>
@@ -13566,11 +14209,11 @@
         <v>240</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F359" s="3"/>
       <c r="G359" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="360" ht="179.25" spans="1:7">
@@ -13578,20 +14221,20 @@
         <v>242</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F360" s="3"/>
       <c r="G360" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" ht="90" spans="1:7">
@@ -13605,19 +14248,19 @@
         <v>249</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="362" ht="128.25" spans="1:7">
       <c r="A362" s="10" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>253</v>
@@ -13633,12 +14276,12 @@
       </c>
       <c r="F362" s="3"/>
       <c r="G362" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" ht="64.5" spans="1:7">
       <c r="A363" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>109</v>
@@ -13650,18 +14293,18 @@
         <v>259</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>261</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>735</v>
+        <v>67</v>
       </c>
     </row>
     <row r="364" ht="64.5" spans="1:7">
       <c r="A364" s="10" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>263</v>
@@ -13670,19 +14313,19 @@
         <v>264</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>266</v>
       </c>
       <c r="F364" s="3"/>
       <c r="G364" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="365" ht="64.5" spans="1:7">
       <c r="A365" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>268</v>
@@ -13698,12 +14341,12 @@
       </c>
       <c r="F365" s="3"/>
       <c r="G365" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" ht="102.75" spans="1:7">
       <c r="A366" s="10" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>47</v>
@@ -13712,19 +14355,19 @@
         <v>224</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>272</v>
       </c>
       <c r="F366" s="3"/>
       <c r="G366" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="367" ht="39" spans="1:7">
       <c r="A367" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>164</v>
@@ -13736,16 +14379,16 @@
         <v>301</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F367" s="3"/>
       <c r="G367" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368" ht="39" spans="1:7">
       <c r="A368" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>103</v>
@@ -13761,33 +14404,33 @@
       </c>
       <c r="F368" s="3"/>
       <c r="G368" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" ht="115.5" spans="1:7">
       <c r="A369" s="10" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F369" s="3"/>
       <c r="G369" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="370" ht="102.75" spans="1:7">
       <c r="A370" s="10" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>63</v>
@@ -13803,35 +14446,35 @@
       </c>
       <c r="F370" s="3"/>
       <c r="G370" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="371" ht="115.5" spans="1:7">
       <c r="A371" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>735</v>
+        <v>67</v>
       </c>
     </row>
     <row r="372" ht="102.75" spans="1:7">
       <c r="A372" s="10" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>275</v>
@@ -13847,12 +14490,12 @@
       </c>
       <c r="F372" s="3"/>
       <c r="G372" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" ht="166.5" spans="1:7">
       <c r="A373" s="10" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>48</v>
@@ -13868,35 +14511,35 @@
       </c>
       <c r="F373" s="3"/>
       <c r="G373" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="374" ht="128.25" spans="1:7">
       <c r="A374" s="10" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>713</v>
+        <v>87</v>
       </c>
     </row>
     <row r="375" ht="102.75" spans="1:7">
       <c r="A375" s="10" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>269</v>
@@ -13912,33 +14555,33 @@
       </c>
       <c r="F375" s="3"/>
       <c r="G375" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="376" ht="90" spans="1:7">
       <c r="A376" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="F376" s="3"/>
       <c r="G376" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" ht="64.5" spans="1:7">
       <c r="A377" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>438</v>
@@ -13947,66 +14590,66 @@
         <v>204</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>366</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>735</v>
+        <v>67</v>
       </c>
     </row>
     <row r="378" ht="153.75" spans="1:7">
       <c r="A378" s="10" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="F378" s="3"/>
       <c r="G378" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" ht="166.5" spans="1:7">
       <c r="A379" s="10" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F379" s="3"/>
       <c r="G379" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="380" ht="102.75" spans="1:7">
       <c r="A380" s="10" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>253</v>
@@ -14019,12 +14662,12 @@
       </c>
       <c r="F380" s="3"/>
       <c r="G380" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381" ht="153.75" spans="1:7">
       <c r="A381" s="10" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>70</v>
@@ -14040,15 +14683,15 @@
       </c>
       <c r="F381" s="3"/>
       <c r="G381" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="382" ht="64.5" spans="1:7">
       <c r="A382" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>128</v>
@@ -14061,12 +14704,12 @@
       </c>
       <c r="F382" s="3"/>
       <c r="G382" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" ht="39" spans="1:7">
       <c r="A383" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>103</v>
@@ -14082,12 +14725,12 @@
       </c>
       <c r="F383" s="3"/>
       <c r="G383" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="384" ht="192" spans="1:7">
       <c r="A384" s="10" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>69</v>
@@ -14096,22 +14739,22 @@
         <v>63</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F384" s="3"/>
       <c r="G384" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="385" ht="51.75" spans="1:7">
       <c r="A385" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>291</v>
@@ -14124,12 +14767,12 @@
       </c>
       <c r="F385" s="3"/>
       <c r="G385" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="386" ht="102.75" spans="1:7">
       <c r="A386" s="10" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>269</v>
@@ -14145,77 +14788,77 @@
       </c>
       <c r="F386" s="3"/>
       <c r="G386" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="387" ht="90" spans="1:7">
       <c r="A387" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F387" s="3"/>
       <c r="G387" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="388" ht="77.25" spans="1:7">
       <c r="A388" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>706</v>
+        <v>219</v>
       </c>
     </row>
     <row r="389" ht="128.25" spans="1:7">
       <c r="A389" s="10" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="390" ht="102.75" spans="1:7">
       <c r="A390" s="10" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>132</v>
@@ -14233,18 +14876,18 @@
         <v>200</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="391" ht="102.75" spans="1:7">
       <c r="A391" s="1" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>162</v>
@@ -14254,12 +14897,12 @@
       </c>
       <c r="F391" s="3"/>
       <c r="G391" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="392" ht="141" spans="1:7">
       <c r="A392" s="10" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>332</v>
@@ -14286,13 +14929,13 @@
         <v>337</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F393" s="7" t="s">
         <v>341</v>
@@ -14306,16 +14949,16 @@
         <v>342</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="F394" s="7"/>
       <c r="G394" s="7" t="s">
@@ -14327,16 +14970,16 @@
         <v>347</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E395" s="8" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F395" s="7"/>
       <c r="G395" s="7" t="s">
@@ -14345,7 +14988,7 @@
     </row>
     <row r="396" ht="102.75" spans="1:7">
       <c r="A396" s="10" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>101</v>
@@ -14366,7 +15009,7 @@
     </row>
     <row r="397" ht="77.25" spans="1:7">
       <c r="A397" s="10" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>70</v>
@@ -14387,22 +15030,22 @@
     </row>
     <row r="398" ht="153.75" spans="1:7">
       <c r="A398" s="10" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F398" s="7" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G398" s="7" t="s">
         <v>87</v>
@@ -14410,7 +15053,7 @@
     </row>
     <row r="399" ht="115.5" spans="1:7">
       <c r="A399" s="10" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>275</v>
@@ -14431,7 +15074,7 @@
     </row>
     <row r="400" ht="77.25" spans="1:7">
       <c r="A400" s="10" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>364</v>
@@ -14476,16 +15119,16 @@
         <v>371</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="F402" s="7"/>
       <c r="G402" s="7" t="s">
@@ -14506,7 +15149,7 @@
         <v>379</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F403" s="7"/>
       <c r="G403" s="7" t="s">
@@ -14536,19 +15179,19 @@
     </row>
     <row r="405" ht="90" spans="1:7">
       <c r="A405" s="10" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="F405" s="7"/>
       <c r="G405" s="7" t="s">
@@ -14578,10 +15221,10 @@
     </row>
     <row r="407" ht="64.5" spans="1:7">
       <c r="A407" s="10" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>394</v>
@@ -14607,13 +15250,13 @@
         <v>398</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F408" s="7"/>
       <c r="G408" s="7" t="s">
@@ -14625,16 +15268,16 @@
         <v>402</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>404</v>
       </c>
       <c r="D409" s="8" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E409" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="F409" s="7"/>
       <c r="G409" s="7" t="s">
@@ -14643,19 +15286,19 @@
     </row>
     <row r="410" ht="102.75" spans="1:7">
       <c r="A410" s="10" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="F410" s="7"/>
       <c r="G410" s="7" t="s">
@@ -14664,22 +15307,22 @@
     </row>
     <row r="411" ht="166.5" spans="1:7">
       <c r="A411" s="10" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="F411" s="7" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G411" s="7" t="s">
         <v>172</v>
@@ -14687,7 +15330,7 @@
     </row>
     <row r="412" ht="128.25" spans="1:7">
       <c r="A412" s="10" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>364</v>
@@ -14711,16 +15354,16 @@
         <v>420</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F413" s="7"/>
       <c r="G413" s="7" t="s">
@@ -14729,7 +15372,7 @@
     </row>
     <row r="414" ht="90" spans="1:7">
       <c r="A414" s="10" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>426</v>
@@ -14774,16 +15417,16 @@
         <v>432</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="F416" s="7"/>
       <c r="G416" s="7" t="s">
@@ -14819,13 +15462,13 @@
         <v>440</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="F418" s="7"/>
       <c r="G418" s="7" t="s">
@@ -14834,7 +15477,7 @@
     </row>
     <row r="419" ht="102.75" spans="1:7">
       <c r="A419" s="10" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>445</v>
@@ -14843,13 +15486,13 @@
         <v>446</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F419" s="7" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G419" s="7" t="s">
         <v>450</v>
@@ -14857,7 +15500,7 @@
     </row>
     <row r="420" ht="141" spans="1:7">
       <c r="A420" s="10" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>452</v>
@@ -14878,19 +15521,19 @@
     </row>
     <row r="421" ht="141" spans="1:7">
       <c r="A421" s="10" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="7" t="s">
@@ -14899,7 +15542,7 @@
     </row>
     <row r="422" ht="77.25" spans="1:7">
       <c r="A422" s="10" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B422" s="8" t="s">
         <v>462</v>
@@ -14920,7 +15563,7 @@
     </row>
     <row r="423" ht="115.5" spans="1:7">
       <c r="A423" s="10" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>162</v>
@@ -14941,22 +15584,22 @@
     </row>
     <row r="424" ht="64.5" spans="1:7">
       <c r="A424" s="10" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>468</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E424" s="4" t="s">
         <v>470</v>
       </c>
       <c r="F424" s="7" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="G424" s="7" t="s">
         <v>172</v>
@@ -14988,7 +15631,7 @@
         <v>473</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>475</v>
@@ -14997,7 +15640,7 @@
         <v>476</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F426" s="7"/>
       <c r="G426" s="7" t="s">
@@ -15006,16 +15649,16 @@
     </row>
     <row r="427" ht="90" spans="1:7">
       <c r="A427" s="10" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>479</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>482</v>
@@ -15027,7 +15670,7 @@
     </row>
     <row r="428" ht="77.25" spans="1:7">
       <c r="A428" s="10" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>329</v>
@@ -15048,7 +15691,7 @@
     </row>
     <row r="429" ht="102.75" spans="1:7">
       <c r="A429" s="10" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>128</v>
@@ -15069,7 +15712,7 @@
     </row>
     <row r="430" ht="102.75" spans="1:7">
       <c r="A430" s="10" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B430" s="4" t="s">
         <v>489</v>
@@ -15078,10 +15721,10 @@
         <v>490</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="F430" s="7"/>
       <c r="G430" s="7" t="s">
@@ -15093,16 +15736,16 @@
         <v>493</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="F431" s="7"/>
       <c r="G431" s="7" t="s">
@@ -15135,19 +15778,19 @@
         <v>500</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F433" s="7" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="G433" s="7" t="s">
         <v>87</v>
@@ -15155,13 +15798,13 @@
     </row>
     <row r="434" ht="90" spans="1:7">
       <c r="A434" s="10" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>509</v>
@@ -15170,7 +15813,7 @@
         <v>510</v>
       </c>
       <c r="F434" s="7" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="G434" s="7" t="s">
         <v>233</v>
@@ -15181,16 +15824,16 @@
         <v>512</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="E435" s="4" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F435" s="7"/>
       <c r="G435" s="7" t="s">
@@ -15199,19 +15842,19 @@
     </row>
     <row r="436" ht="102.75" spans="1:7">
       <c r="A436" s="10" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="F436" s="7"/>
       <c r="G436" s="7" t="s">
@@ -15235,7 +15878,7 @@
         <v>526</v>
       </c>
       <c r="F437" s="7" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="G437" s="7" t="s">
         <v>197</v>
@@ -15246,16 +15889,16 @@
         <v>528</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>531</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="F438" s="7"/>
       <c r="G438" s="7" t="s">
@@ -15291,13 +15934,13 @@
         <v>535</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E440" s="4" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="F440" s="7"/>
       <c r="G440" s="7" t="s">
@@ -15309,16 +15952,16 @@
         <v>539</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E441" s="4" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F441" s="7"/>
       <c r="G441" s="7" t="s">
@@ -15330,16 +15973,16 @@
         <v>544</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F442" s="4" t="s">
         <v>549</v>
@@ -15350,22 +15993,22 @@
     </row>
     <row r="443" ht="179.25" spans="1:7">
       <c r="A443" s="10" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="E443" s="4" t="s">
         <v>554</v>
       </c>
       <c r="F443" s="7" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="G443" s="7" t="s">
         <v>197</v>
@@ -15373,16 +16016,16 @@
     </row>
     <row r="444" ht="77.25" spans="1:7">
       <c r="A444" s="10" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>313</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="E444" s="4" t="s">
         <v>353</v>
@@ -15406,7 +16049,7 @@
         <v>564</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F445" s="7"/>
       <c r="G445" s="7" t="s">
@@ -15418,16 +16061,16 @@
         <v>566</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>569</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F446" s="7"/>
       <c r="G446" s="7" t="s">
@@ -15439,16 +16082,16 @@
         <v>571</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E447" s="4" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="F447" s="7"/>
       <c r="G447" s="7" t="s">
@@ -15481,7 +16124,7 @@
         <v>578</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>579</v>
@@ -15541,19 +16184,19 @@
     </row>
     <row r="452" ht="39" spans="1:7">
       <c r="A452" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E452" s="4" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F452" s="7"/>
       <c r="G452" s="7" t="s">
@@ -15562,19 +16205,19 @@
     </row>
     <row r="453" ht="141" spans="1:7">
       <c r="A453" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E453" s="4" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="F453" s="7"/>
       <c r="G453" s="7" t="s">
@@ -15583,22 +16226,22 @@
     </row>
     <row r="454" ht="115.5" spans="1:7">
       <c r="A454" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E454" s="4" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F454" s="7" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G454" s="7" t="s">
         <v>87</v>
@@ -15606,19 +16249,19 @@
     </row>
     <row r="455" ht="77.25" spans="1:7">
       <c r="A455" s="1" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E455" s="4" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F455" s="7"/>
       <c r="G455" s="7" t="s">
@@ -15627,22 +16270,22 @@
     </row>
     <row r="456" ht="115.5" spans="1:7">
       <c r="A456" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F456" s="7" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="G456" s="7" t="s">
         <v>165</v>
